--- a/backtest results/Nifty covered call (monthly).xlsx
+++ b/backtest results/Nifty covered call (monthly).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4378D3AB-8EFE-BD40-BD93-BAE53CE38454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B07568-99BD-A141-944A-6711EA91F3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NIFTY 50 (20231101000000000 _ 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="month expiry to expiry" sheetId="4" r:id="rId1"/>
+    <sheet name="calendar month" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -51,171 +51,6 @@
     <t>Close</t>
   </si>
   <si>
-    <t>Mon Aug 01 2016 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Sep 01 2016 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 2016 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue Nov 01 2016 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Dec 01 2016 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jan 02 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Feb 01 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Mar 01 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Apr 03 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon May 01 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Jun 01 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue Aug 01 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Fri Sep 01 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Fri Dec 01 2017 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jan 01 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Feb 01 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Mar 01 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Apr 02 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue May 01 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Fri Jun 01 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jul 02 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Aug 01 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Sep 03 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Oct 01 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Nov 01 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Dec 03 2018 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue Jan 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Fri Feb 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Fri Mar 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Apr 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed May 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jun 03 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jul 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Aug 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Sep 02 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue Oct 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Fri Nov 01 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Dec 02 2019 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Jan 01 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Feb 03 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Mar 02 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Apr 01 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Fri May 01 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jun 01 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Jul 01 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Aug 03 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue Sep 01 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Oct 01 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Nov 02 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue Dec 01 2020 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Fri Jan 01 2021 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Feb 01 2021 00:00:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
     <t>Mon Mar 01 2021 00:00:00 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
@@ -328,12 +163,162 @@
   </si>
   <si>
     <t>atm call strike</t>
+  </si>
+  <si>
+    <t>winners</t>
+  </si>
+  <si>
+    <t>losers</t>
+  </si>
+  <si>
+    <t>win %</t>
+  </si>
+  <si>
+    <t>losers %</t>
+  </si>
+  <si>
+    <t>average winner</t>
+  </si>
+  <si>
+    <t>average loser</t>
+  </si>
+  <si>
+    <t>Risk Reward</t>
+  </si>
+  <si>
+    <t>highest winner</t>
+  </si>
+  <si>
+    <t>highest loser</t>
+  </si>
+  <si>
+    <t>Expectancy</t>
+  </si>
+  <si>
+    <t>Expectancy Ratio</t>
+  </si>
+  <si>
+    <t>Total call pnl</t>
+  </si>
+  <si>
+    <t>Thu Mar 25 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Apr 29 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu May 27 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Jun 24 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Jul 29 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Aug 26 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Sep 30 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Oct 28 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Nov 25 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Dec 30 2021 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Jan 27 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Feb 24 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Mar 24 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Apr 28 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu May 26 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Jun 30 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Jul 28 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Aug 25 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Sep 29 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Nov 24 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Dec 29 2022 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Wed Jan 25 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Feb 23 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Wed Mar 29 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Apr 27 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu May 25 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Wed Jun 28 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Jul 27 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Aug 31 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Oct 26 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Fri Nov 24 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -767,7 +752,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -810,11 +795,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -854,6 +843,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -869,6 +859,1897 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'month expiry to expiry'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>call pnl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'month expiry to expiry'!$J$2:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-37.850000000000364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-190.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-536.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-718.15000000000146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-384.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-272.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-359.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-164.70000000000073</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>318.59999999999673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE87-8748-8734-3C2A9E415BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1445187344"/>
+        <c:axId val="1445033744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1445187344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445033744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1445033744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445187344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'calendar month'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>call pnl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'calendar month'!$J$2:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-582.79999999999927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236.95000000000073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1032.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-218.15000000000146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>228.34999999999854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.700000000000728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-262.20000000000073</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-458.34999999999854</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-239.04999999999927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-253.79999999999927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BD5-524A-8796-9B94D218BBE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1455332960"/>
+        <c:axId val="1455360080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1455332960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455360080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1455360080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455332960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186096DD-FAA0-9936-5CD8-773C71FCF24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96675C6F-7FE2-0309-90B0-624CB72AA356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,1550 +3048,1114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EC9B32-201A-2948-B0D1-F0DBC04E9E60}">
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>15097.35</v>
+      </c>
+      <c r="E2">
+        <v>14324.9</v>
+      </c>
+      <c r="F2">
+        <v>15100</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
+      <c r="H2">
+        <f>E2-F2</f>
+        <v>-775.10000000000036</v>
+      </c>
+      <c r="I2">
+        <f>IF(H2&lt;0,0,H2)</f>
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J2">
+        <f>G2-I2</f>
+        <v>300</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF($J$2:$J$200,"&gt;0")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>14324.9</v>
+      </c>
+      <c r="E3">
+        <v>14894.9</v>
+      </c>
+      <c r="F3">
+        <v>15100</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="0">E3-F3</f>
+        <v>-205.10000000000036</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I34" si="1">IF(H3&lt;0,0,H3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K34" si="2">G3-I3</f>
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIF($J$2:$J$200,"&lt;=0")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>14894.9</v>
+      </c>
+      <c r="E4">
+        <v>15337.85</v>
+      </c>
+      <c r="F4">
+        <v>15100</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>237.85000000000036</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>237.85000000000036</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>-37.850000000000364</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1">
+        <f>M2/(M2+M3)</f>
+        <v>0.76470588235294112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>15337.85</v>
+      </c>
+      <c r="E5">
+        <v>15790.45</v>
+      </c>
+      <c r="F5">
+        <v>15300</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>490.45000000000073</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>490.45000000000073</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>-190.45000000000073</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <f>100%-M4</f>
+        <v>0.23529411764705888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>15790.45</v>
+      </c>
+      <c r="E6">
+        <v>15778.45</v>
+      </c>
+      <c r="F6">
+        <v>15800</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-21.549999999999272</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>15778.45</v>
+      </c>
+      <c r="E7">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="F7">
+        <v>15800</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>836.90000000000146</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>836.90000000000146</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>-536.90000000000146</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="3">
+        <f>AVERAGEIF($J$2:$J$200,"&gt;0")</f>
+        <v>126.97499999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="E8">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="F8">
+        <v>16600</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1018.1500000000015</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1018.1500000000015</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>-718.15000000000146</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="3">
+        <f>AVERAGEIF($J$2:$J$200,"&lt;=0")</f>
+        <v>-333.01875000000041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="E9">
+        <v>17857.25</v>
+      </c>
+      <c r="F9">
+        <v>17600</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>257.25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>257.25</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>42.75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="3">
+        <f>M7/ABS(M8)</f>
+        <v>0.38128483756545156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>17857.25</v>
+      </c>
+      <c r="E10">
+        <v>17536.25</v>
+      </c>
+      <c r="F10">
+        <v>17800</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-263.75</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>17536.25</v>
+      </c>
+      <c r="E11">
+        <v>17203.95</v>
+      </c>
+      <c r="F11">
+        <v>17800</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-596.04999999999927</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <f>MAX($J$2:$J$200)</f>
+        <v>318.59999999999673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>17203.95</v>
+      </c>
+      <c r="E12">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="F12">
+        <v>17800</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-689.84999999999854</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12">
+        <f>MIN($J$2:$J$200)</f>
+        <v>-718.15000000000146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="E13">
+        <v>16247.95</v>
+      </c>
+      <c r="F13">
+        <v>17800</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-1552.0499999999993</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>16247.95</v>
+      </c>
+      <c r="E14">
+        <v>17222.75</v>
+      </c>
+      <c r="F14">
+        <v>17800</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>8654.2900000000009</v>
-      </c>
-      <c r="C2">
-        <v>8819.2000000000007</v>
-      </c>
-      <c r="D2">
-        <v>8518.15</v>
-      </c>
-      <c r="E2">
-        <v>8786.2000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>8793.6</v>
-      </c>
-      <c r="C3">
-        <v>8968.7000000000007</v>
-      </c>
-      <c r="D3">
-        <v>8555.2000000000007</v>
-      </c>
-      <c r="E3">
-        <v>8611.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>8666.15</v>
-      </c>
-      <c r="C4">
-        <v>8806.9500000000007</v>
-      </c>
-      <c r="D4">
-        <v>8506.15</v>
-      </c>
-      <c r="E4">
-        <v>8625.7000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>8653.15</v>
-      </c>
-      <c r="C5">
-        <v>8669.6</v>
-      </c>
-      <c r="D5">
-        <v>7916.4</v>
-      </c>
-      <c r="E5">
-        <v>8224.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>8244</v>
-      </c>
-      <c r="C6">
-        <v>8274.9500000000007</v>
-      </c>
-      <c r="D6">
-        <v>7893.8</v>
-      </c>
-      <c r="E6">
-        <v>8185.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>8210.1</v>
-      </c>
-      <c r="C7">
-        <v>8672.7000000000007</v>
-      </c>
-      <c r="D7">
-        <v>8133.8</v>
-      </c>
-      <c r="E7">
-        <v>8561.2999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>8570.35</v>
-      </c>
-      <c r="C8">
-        <v>8982.15</v>
-      </c>
-      <c r="D8">
-        <v>8537.5</v>
-      </c>
-      <c r="E8">
-        <v>8879.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>8904.4</v>
-      </c>
-      <c r="C9">
-        <v>9218.4</v>
-      </c>
-      <c r="D9">
-        <v>8860.1</v>
-      </c>
-      <c r="E9">
-        <v>9173.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>9220.6</v>
-      </c>
-      <c r="C10">
-        <v>9367.15</v>
-      </c>
-      <c r="D10">
-        <v>9075.15</v>
-      </c>
-      <c r="E10">
-        <v>9304.0499999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>9339.85</v>
-      </c>
-      <c r="C11">
-        <v>9649.6</v>
-      </c>
-      <c r="D11">
-        <v>9269.9</v>
-      </c>
-      <c r="E11">
-        <v>9621.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-577.25</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="3">
+        <f>(M4*M7)+(M5*M8)</f>
+        <v>18.741176470588016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>17222.75</v>
+      </c>
+      <c r="E15">
+        <v>17245.05</v>
+      </c>
+      <c r="F15">
+        <v>17800</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-554.95000000000073</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="3">
+        <f>(M9*M4)-M5</f>
+        <v>5.6276640491227603E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>17245.05</v>
+      </c>
+      <c r="E16">
+        <v>16170.15</v>
+      </c>
+      <c r="F16">
+        <v>17800</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-1629.8500000000004</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>16170.15</v>
+      </c>
+      <c r="E17">
+        <v>15780.25</v>
+      </c>
+      <c r="F17">
+        <v>17800</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-2019.75</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>15780.25</v>
+      </c>
+      <c r="E18">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="F18">
+        <v>17800</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-870.40000000000146</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="E19">
+        <v>17522.45</v>
+      </c>
+      <c r="F19">
+        <v>17800</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-277.54999999999927</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>17522.45</v>
+      </c>
+      <c r="E20">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="F20">
+        <v>17800</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-981.90000000000146</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="E21">
+        <v>17736.95</v>
+      </c>
+      <c r="F21">
+        <v>17800</v>
+      </c>
+      <c r="G21">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>9603.5400000000009</v>
-      </c>
-      <c r="C12">
-        <v>9709.2999999999993</v>
-      </c>
-      <c r="D12">
-        <v>9448.75</v>
-      </c>
-      <c r="E12">
-        <v>9520.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>9587.9500000000007</v>
-      </c>
-      <c r="C13">
-        <v>10114.85</v>
-      </c>
-      <c r="D13">
-        <v>9543.5400000000009</v>
-      </c>
-      <c r="E13">
-        <v>10077.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>10101.040000000001</v>
-      </c>
-      <c r="C14">
-        <v>10137.85</v>
-      </c>
-      <c r="D14">
-        <v>9685.5400000000009</v>
-      </c>
-      <c r="E14">
-        <v>9917.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>9937.65</v>
-      </c>
-      <c r="C15">
-        <v>10178.950000000001</v>
-      </c>
-      <c r="D15">
-        <v>9687.5400000000009</v>
-      </c>
-      <c r="E15">
-        <v>9788.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>9893.2900000000009</v>
-      </c>
-      <c r="C16">
-        <v>10384.5</v>
-      </c>
-      <c r="D16">
-        <v>9831.0400000000009</v>
-      </c>
-      <c r="E16">
-        <v>10335.299999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>10390.35</v>
-      </c>
-      <c r="C17">
-        <v>10490.45</v>
-      </c>
-      <c r="D17">
-        <v>10094</v>
-      </c>
-      <c r="E17">
-        <v>10226.549999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>10263.700000000001</v>
-      </c>
-      <c r="C18">
-        <v>10552.4</v>
-      </c>
-      <c r="D18">
-        <v>10033.35</v>
-      </c>
-      <c r="E18">
-        <v>10530.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>10531.7</v>
-      </c>
-      <c r="C19">
-        <v>11171.55</v>
-      </c>
-      <c r="D19">
-        <v>10404.65</v>
-      </c>
-      <c r="E19">
-        <v>11027.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>11044.55</v>
-      </c>
-      <c r="C20">
-        <v>11117.35</v>
-      </c>
-      <c r="D20">
-        <v>10276.290000000001</v>
-      </c>
-      <c r="E20">
-        <v>10492.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>10479.950000000001</v>
-      </c>
-      <c r="C21">
-        <v>10525.5</v>
-      </c>
-      <c r="D21">
-        <v>9951.9</v>
-      </c>
-      <c r="E21">
-        <v>10113.700000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-63.049999999999272</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>10151.65</v>
-      </c>
-      <c r="C22">
-        <v>10759</v>
-      </c>
-      <c r="D22">
-        <v>10111.290000000001</v>
+        <v>17736.95</v>
       </c>
       <c r="E22">
-        <v>10739.35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="F22">
+        <v>17800</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>684.09999999999854</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>684.09999999999854</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>-384.09999999999854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>10783.85</v>
-      </c>
-      <c r="C23">
-        <v>10929.2</v>
-      </c>
-      <c r="D23">
-        <v>10417.790000000001</v>
+        <v>18484.099999999999</v>
       </c>
       <c r="E23">
-        <v>10736.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18191</v>
+      </c>
+      <c r="F23">
+        <v>18500</v>
+      </c>
+      <c r="G23">
+        <v>300</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>-309</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>10738.45</v>
-      </c>
-      <c r="C24">
-        <v>10893.25</v>
-      </c>
-      <c r="D24">
-        <v>10550.9</v>
+        <v>18191</v>
       </c>
       <c r="E24">
-        <v>10714.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17891.95</v>
+      </c>
+      <c r="F24">
+        <v>18500</v>
+      </c>
+      <c r="G24">
+        <v>150</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>-608.04999999999927</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>10732.35</v>
-      </c>
-      <c r="C25">
-        <v>11366</v>
-      </c>
-      <c r="D25">
-        <v>10604.65</v>
+        <v>17891.95</v>
       </c>
       <c r="E25">
-        <v>11356.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17511.25</v>
+      </c>
+      <c r="F25">
+        <v>18500</v>
+      </c>
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>-988.75</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>11359.8</v>
-      </c>
-      <c r="C26">
-        <v>11760.2</v>
-      </c>
-      <c r="D26">
-        <v>11234.95</v>
+        <v>17511.25</v>
       </c>
       <c r="E26">
-        <v>11680.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17080.7</v>
+      </c>
+      <c r="F26">
+        <v>18500</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-1419.2999999999993</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>17080.7</v>
+      </c>
+      <c r="E27">
+        <v>17915.05</v>
+      </c>
+      <c r="F27">
+        <v>18500</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-584.95000000000073</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>17915.05</v>
+      </c>
+      <c r="E28">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="F28">
+        <v>18500</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>-178.84999999999854</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="E29">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="F29">
+        <v>18500</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>472.09999999999854</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>472.09999999999854</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>-272.09999999999854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="E30">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="F30">
+        <v>19000</v>
+      </c>
+      <c r="G30">
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>659.90000000000146</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>659.90000000000146</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>-359.90000000000146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="E31">
+        <v>19253.8</v>
+      </c>
+      <c r="F31">
+        <v>19600</v>
+      </c>
+      <c r="G31">
+        <v>300</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-346.20000000000073</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>19253.8</v>
+      </c>
+      <c r="E32">
+        <v>19523.55</v>
+      </c>
+      <c r="F32">
+        <v>19600</v>
+      </c>
+      <c r="G32">
+        <v>120</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-76.450000000000728</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33">
+        <v>19523.55</v>
+      </c>
+      <c r="E33">
+        <v>18857.25</v>
+      </c>
+      <c r="F33">
+        <v>19600</v>
+      </c>
+      <c r="G33">
+        <v>300</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>-742.75</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34">
+        <v>18857.25</v>
+      </c>
+      <c r="E34">
+        <v>19794.7</v>
+      </c>
+      <c r="F34">
+        <v>19600</v>
+      </c>
+      <c r="G34">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>11751.8</v>
-      </c>
-      <c r="C27">
-        <v>11751.8</v>
-      </c>
-      <c r="D27">
-        <v>10850.3</v>
-      </c>
-      <c r="E27">
-        <v>10930.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>10930.9</v>
-      </c>
-      <c r="C28">
-        <v>11035.65</v>
-      </c>
-      <c r="D28">
-        <v>10004.540000000001</v>
-      </c>
-      <c r="E28">
-        <v>10386.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>10441.700000000001</v>
-      </c>
-      <c r="C29">
-        <v>10922.45</v>
-      </c>
-      <c r="D29">
-        <v>10341.9</v>
-      </c>
-      <c r="E29">
-        <v>10876.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>10930.7</v>
-      </c>
-      <c r="C30">
-        <v>10985.15</v>
-      </c>
-      <c r="D30">
-        <v>10333.85</v>
-      </c>
-      <c r="E30">
-        <v>10862.55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>10881.7</v>
-      </c>
-      <c r="C31">
-        <v>10987.45</v>
-      </c>
-      <c r="D31">
-        <v>10583.65</v>
-      </c>
-      <c r="E31">
-        <v>10830.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>10851.35</v>
-      </c>
-      <c r="C32">
-        <v>11118.1</v>
-      </c>
-      <c r="D32">
-        <v>10585.65</v>
-      </c>
-      <c r="E32">
-        <v>10792.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>10842.65</v>
-      </c>
-      <c r="C33">
-        <v>11630.35</v>
-      </c>
-      <c r="D33">
-        <v>10817</v>
-      </c>
-      <c r="E33">
-        <v>11623.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>11665.2</v>
-      </c>
-      <c r="C34">
-        <v>11856.15</v>
-      </c>
-      <c r="D34">
-        <v>11549.1</v>
-      </c>
-      <c r="E34">
-        <v>11748.15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>11725.55</v>
-      </c>
-      <c r="C35">
-        <v>12041.15</v>
-      </c>
-      <c r="D35">
-        <v>11108.3</v>
-      </c>
-      <c r="E35">
-        <v>11922.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>11953.75</v>
-      </c>
-      <c r="C36">
-        <v>12103.05</v>
-      </c>
-      <c r="D36">
-        <v>11625.1</v>
-      </c>
-      <c r="E36">
-        <v>11788.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>11839.9</v>
-      </c>
-      <c r="C37">
-        <v>11981.75</v>
-      </c>
-      <c r="D37">
-        <v>10999.4</v>
-      </c>
-      <c r="E37">
-        <v>11118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>11060.2</v>
-      </c>
-      <c r="C38">
-        <v>11181.45</v>
-      </c>
-      <c r="D38">
-        <v>10637.15</v>
-      </c>
-      <c r="E38">
-        <v>11023.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>10960.95</v>
-      </c>
-      <c r="C39">
-        <v>11694.85</v>
-      </c>
-      <c r="D39">
-        <v>10670.25</v>
-      </c>
-      <c r="E39">
-        <v>11474.45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>11515.4</v>
-      </c>
-      <c r="C40">
-        <v>11945</v>
-      </c>
-      <c r="D40">
-        <v>11090.15</v>
-      </c>
-      <c r="E40">
-        <v>11877.45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>11886.6</v>
-      </c>
-      <c r="C41">
-        <v>12158.8</v>
-      </c>
-      <c r="D41">
-        <v>11802.65</v>
-      </c>
-      <c r="E41">
-        <v>12056.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>12137.05</v>
-      </c>
-      <c r="C42">
-        <v>12293.9</v>
-      </c>
-      <c r="D42">
-        <v>11832.3</v>
-      </c>
-      <c r="E42">
-        <v>12168.45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>12202.15</v>
-      </c>
-      <c r="C43">
-        <v>12430.5</v>
-      </c>
-      <c r="D43">
-        <v>11633.3</v>
-      </c>
-      <c r="E43">
-        <v>11661.85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44">
-        <v>11627.45</v>
-      </c>
-      <c r="C44">
-        <v>12246.7</v>
-      </c>
-      <c r="D44">
-        <v>11175.05</v>
-      </c>
-      <c r="E44">
-        <v>11201.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>11387.35</v>
-      </c>
-      <c r="C45">
-        <v>11433</v>
-      </c>
-      <c r="D45">
-        <v>7511.1</v>
-      </c>
-      <c r="E45">
-        <v>8597.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>8584.1</v>
-      </c>
-      <c r="C46">
-        <v>9889.0400000000009</v>
-      </c>
-      <c r="D46">
-        <v>8055.8</v>
-      </c>
-      <c r="E46">
-        <v>9859.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>9533.5</v>
-      </c>
-      <c r="C47">
-        <v>9598.85</v>
-      </c>
-      <c r="D47">
-        <v>8806.75</v>
-      </c>
-      <c r="E47">
-        <v>9580.2900000000009</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>9726.85</v>
-      </c>
-      <c r="C48">
-        <v>10553.15</v>
-      </c>
-      <c r="D48">
-        <v>9544.35</v>
-      </c>
-      <c r="E48">
-        <v>10302.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>10323.790000000001</v>
-      </c>
-      <c r="C49">
-        <v>11341.4</v>
-      </c>
-      <c r="D49">
-        <v>10299.6</v>
-      </c>
-      <c r="E49">
-        <v>11073.45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <v>11057.55</v>
-      </c>
-      <c r="C50">
-        <v>11794.25</v>
-      </c>
-      <c r="D50">
-        <v>10882.25</v>
-      </c>
-      <c r="E50">
-        <v>11387.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>194.70000000000073</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>194.70000000000073</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>-164.70000000000073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
         <v>54</v>
       </c>
-      <c r="B51">
-        <v>11464.3</v>
-      </c>
-      <c r="C51">
-        <v>11618.1</v>
-      </c>
-      <c r="D51">
-        <v>10790.2</v>
-      </c>
-      <c r="E51">
-        <v>11247.55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>11364.45</v>
-      </c>
-      <c r="C52">
-        <v>12025.45</v>
-      </c>
-      <c r="D52">
-        <v>11347.05</v>
-      </c>
-      <c r="E52">
-        <v>11642.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53">
-        <v>11697.35</v>
-      </c>
-      <c r="C53">
-        <v>13145.85</v>
-      </c>
-      <c r="D53">
-        <v>11557.4</v>
-      </c>
-      <c r="E53">
-        <v>12968.95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54">
-        <v>13062.2</v>
-      </c>
-      <c r="C54">
-        <v>14024.85</v>
-      </c>
-      <c r="D54">
-        <v>12962.8</v>
-      </c>
-      <c r="E54">
-        <v>13981.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55">
-        <v>13996.1</v>
-      </c>
-      <c r="C55">
-        <v>14753.55</v>
-      </c>
-      <c r="D55">
-        <v>13596.75</v>
-      </c>
-      <c r="E55">
-        <v>13634.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56">
-        <v>13758.6</v>
-      </c>
-      <c r="C56">
-        <v>15431.75</v>
-      </c>
-      <c r="D56">
-        <v>13661.75</v>
-      </c>
-      <c r="E56">
-        <v>14529.15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>14702.5</v>
-      </c>
-      <c r="C57">
-        <v>15336.3</v>
-      </c>
-      <c r="D57">
-        <v>14264.4</v>
-      </c>
-      <c r="E57">
-        <v>14690.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58">
-        <v>14798.4</v>
-      </c>
-      <c r="C58">
-        <v>15044.35</v>
-      </c>
-      <c r="D58">
-        <v>14151.4</v>
-      </c>
-      <c r="E58">
-        <v>14631.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59">
-        <v>14481.05</v>
-      </c>
-      <c r="C59">
-        <v>15606.35</v>
-      </c>
-      <c r="D59">
-        <v>14416.25</v>
-      </c>
-      <c r="E59">
-        <v>15582.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60">
-        <v>15629.65</v>
-      </c>
-      <c r="C60">
-        <v>15915.65</v>
-      </c>
-      <c r="D60">
-        <v>15450.9</v>
-      </c>
-      <c r="E60">
-        <v>15721.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61">
-        <v>15755.05</v>
-      </c>
-      <c r="C61">
-        <v>15962.25</v>
-      </c>
-      <c r="D61">
-        <v>15513.45</v>
-      </c>
-      <c r="E61">
-        <v>15763.05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62">
-        <v>15874.9</v>
-      </c>
-      <c r="C62">
-        <v>17153.5</v>
-      </c>
-      <c r="D62">
-        <v>15834.65</v>
-      </c>
-      <c r="E62">
-        <v>17132.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63">
-        <v>17185.59</v>
-      </c>
-      <c r="C63">
-        <v>17947.650000000001</v>
-      </c>
-      <c r="D63">
-        <v>17055.05</v>
-      </c>
-      <c r="E63">
-        <v>17618.150000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64">
-        <v>17531.900000000001</v>
-      </c>
-      <c r="C64">
-        <v>18604.45</v>
-      </c>
-      <c r="D64">
-        <v>17452.900000000001</v>
-      </c>
-      <c r="E64">
-        <v>17671.650000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65">
-        <v>17783.150000000001</v>
-      </c>
-      <c r="C65">
-        <v>18210.150000000001</v>
-      </c>
-      <c r="D65">
-        <v>16782.400000000001</v>
-      </c>
-      <c r="E65">
-        <v>16983.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66">
-        <v>17104.400000000001</v>
-      </c>
-      <c r="C66">
-        <v>17639.5</v>
-      </c>
-      <c r="D66">
-        <v>16410.2</v>
-      </c>
-      <c r="E66">
-        <v>17354.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67">
-        <v>17387.150000000001</v>
-      </c>
-      <c r="C67">
-        <v>18350.95</v>
-      </c>
-      <c r="D67">
-        <v>16836.8</v>
-      </c>
-      <c r="E67">
-        <v>17339.84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68">
-        <v>17529.45</v>
-      </c>
-      <c r="C68">
-        <v>17794.59</v>
-      </c>
-      <c r="D68">
-        <v>16203.25</v>
-      </c>
-      <c r="E68">
-        <v>16793.900000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69">
-        <v>16593.099999999999</v>
-      </c>
-      <c r="C69">
-        <v>17559.8</v>
-      </c>
-      <c r="D69">
-        <v>15671.45</v>
-      </c>
-      <c r="E69">
-        <v>17464.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70">
-        <v>17436.900000000001</v>
-      </c>
-      <c r="C70">
-        <v>18114.650000000001</v>
-      </c>
-      <c r="D70">
-        <v>16824.7</v>
-      </c>
-      <c r="E70">
-        <v>17102.55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71">
-        <v>16924.45</v>
-      </c>
-      <c r="C71">
-        <v>17132.849999999999</v>
-      </c>
-      <c r="D71">
-        <v>15735.75</v>
-      </c>
-      <c r="E71">
-        <v>16584.55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72">
-        <v>16594.400000000001</v>
-      </c>
-      <c r="C72">
-        <v>16793.849999999999</v>
-      </c>
-      <c r="D72">
-        <v>15183.4</v>
-      </c>
-      <c r="E72">
-        <v>15780.25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73">
-        <v>15703.7</v>
-      </c>
-      <c r="C73">
-        <v>17172.8</v>
-      </c>
-      <c r="D73">
-        <v>15511.05</v>
-      </c>
-      <c r="E73">
-        <v>17158.25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74">
-        <v>17243.2</v>
-      </c>
-      <c r="C74">
-        <v>17992.2</v>
-      </c>
-      <c r="D74">
-        <v>17154.8</v>
-      </c>
-      <c r="E74">
-        <v>17759.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75">
-        <v>17485.7</v>
-      </c>
-      <c r="C75">
-        <v>18096.150000000001</v>
-      </c>
-      <c r="D75">
-        <v>16747.7</v>
-      </c>
-      <c r="E75">
-        <v>17094.349999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76">
-        <v>17102.099999999999</v>
-      </c>
-      <c r="C76">
-        <v>18022.8</v>
-      </c>
-      <c r="D76">
-        <v>16855.55</v>
-      </c>
-      <c r="E76">
-        <v>18012.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77">
-        <v>18130.7</v>
-      </c>
-      <c r="C77">
-        <v>18816.05</v>
-      </c>
-      <c r="D77">
-        <v>17959.2</v>
-      </c>
-      <c r="E77">
-        <v>18758.349999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78">
-        <v>18871.95</v>
-      </c>
-      <c r="C78">
-        <v>18887.599999999999</v>
-      </c>
-      <c r="D78">
-        <v>17774.25</v>
-      </c>
-      <c r="E78">
-        <v>18105.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79">
-        <v>18131.7</v>
-      </c>
-      <c r="C79">
-        <v>18251.95</v>
-      </c>
-      <c r="D79">
-        <v>17405.55</v>
-      </c>
-      <c r="E79">
-        <v>17662.150000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80">
-        <v>17811.599999999999</v>
-      </c>
-      <c r="C80">
-        <v>18134.75</v>
-      </c>
-      <c r="D80">
-        <v>17255.2</v>
-      </c>
-      <c r="E80">
-        <v>17303.95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81">
-        <v>17360.099999999999</v>
-      </c>
-      <c r="C81">
-        <v>17799.95</v>
-      </c>
-      <c r="D81">
-        <v>16828.349999999999</v>
-      </c>
-      <c r="E81">
-        <v>17359.75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82">
-        <v>17427.95</v>
-      </c>
-      <c r="C82">
-        <v>18089.150000000001</v>
-      </c>
-      <c r="D82">
-        <v>17312.75</v>
-      </c>
-      <c r="E82">
-        <v>18065</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83">
-        <v>18124.8</v>
-      </c>
-      <c r="C83">
-        <v>18662.45</v>
-      </c>
-      <c r="D83">
-        <v>18042.400000000001</v>
-      </c>
-      <c r="E83">
-        <v>18534.400000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84">
-        <v>18579.400000000001</v>
-      </c>
-      <c r="C84">
-        <v>19201.7</v>
-      </c>
-      <c r="D84">
-        <v>18464.55</v>
-      </c>
-      <c r="E84">
-        <v>19189.05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>19246.5</v>
-      </c>
-      <c r="C85">
-        <v>19991.849999999999</v>
-      </c>
-      <c r="D85">
-        <v>19234.400000000001</v>
-      </c>
-      <c r="E85">
-        <v>19753.8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86">
-        <v>19784</v>
-      </c>
-      <c r="C86">
-        <v>19795.599999999999</v>
-      </c>
-      <c r="D86">
-        <v>19223.650000000001</v>
-      </c>
-      <c r="E86">
-        <v>19253.8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87">
-        <v>19258.150000000001</v>
-      </c>
-      <c r="C87">
-        <v>20222.45</v>
-      </c>
-      <c r="D87">
-        <v>19255.7</v>
-      </c>
-      <c r="E87">
-        <v>19638.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88">
-        <v>19622.400000000001</v>
-      </c>
-      <c r="C88">
-        <v>19849.75</v>
-      </c>
-      <c r="D88">
-        <v>18837.849999999999</v>
-      </c>
-      <c r="E88">
-        <v>19079.599999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89">
-        <v>19064.05</v>
-      </c>
-      <c r="C89">
-        <v>19875.25</v>
-      </c>
-      <c r="D89">
-        <v>18973.7</v>
-      </c>
-      <c r="E89">
-        <v>19693.650000000001</v>
+      <c r="J35">
+        <f>SUM(J2:J34)</f>
+        <v>318.59999999999673</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2727,24 +4172,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>14702.5</v>
@@ -2776,10 +4221,17 @@
         <f>G2-I2</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF($J$2:$J$200,"&gt;0")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>14798.4</v>
@@ -2794,14 +4246,14 @@
         <v>14631.1</v>
       </c>
       <c r="F3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H34" si="0">E3-F3</f>
-        <v>-168.89999999999964</v>
+        <v>-68.899999999999636</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I34" si="1">IF(H3&lt;0,0,H3)</f>
@@ -2809,12 +4261,19 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J34" si="2">G3-I3</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIF($J$2:$J$200,"&lt;=0")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>14481.05</v>
@@ -2829,27 +4288,34 @@
         <v>15582.8</v>
       </c>
       <c r="F4">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="G4">
         <v>300</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>782.79999999999927</v>
+        <v>882.79999999999927</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>782.79999999999927</v>
+        <v>882.79999999999927</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>-482.79999999999927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-582.79999999999927</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1">
+        <f>M2/(M2+M3)</f>
+        <v>0.79411764705882348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>15629.65</v>
@@ -2881,10 +4347,17 @@
         <f t="shared" si="2"/>
         <v>178.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <f>100%-M4</f>
+        <v>0.20588235294117652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>15755.05</v>
@@ -2899,27 +4372,27 @@
         <v>15763.05</v>
       </c>
       <c r="F6">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="G6">
         <v>300</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>-36.950000000000728</v>
+        <v>63.049999999999272</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63.049999999999272</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>236.95000000000073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>15874.9</v>
@@ -2951,10 +4424,17 @@
         <f t="shared" si="2"/>
         <v>-1032.2000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="3">
+        <f>AVERAGEIF($J$2:$J$200,"&gt;0")</f>
+        <v>162.68333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>17185.59</v>
@@ -2986,10 +4466,17 @@
         <f t="shared" si="2"/>
         <v>-218.15000000000146</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="3">
+        <f>AVERAGEIF($J$2:$J$200,"&lt;=0")</f>
+        <v>-435.22142857142848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>17531.900000000001</v>
@@ -3021,10 +4508,17 @@
         <f t="shared" si="2"/>
         <v>228.34999999999854</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="3">
+        <f>M7/ABS(M8)</f>
+        <v>0.37379440131733727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>17783.150000000001</v>
@@ -3057,9 +4551,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>17104.400000000001</v>
@@ -3091,10 +4585,17 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <f>MAX($J$2:$J$200)</f>
+        <v>672.95000000000073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>17387.150000000001</v>
@@ -3126,10 +4627,17 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12">
+        <f>MIN($J$2:$J$200)</f>
+        <v>-1032.2000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>17529.45</v>
@@ -3162,9 +4670,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>16593.099999999999</v>
@@ -3196,10 +4704,17 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="3">
+        <f>(M4*M7)+(M5*M8)</f>
+        <v>39.585294117647081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>17436.900000000001</v>
@@ -3231,10 +4746,17 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="3">
+        <f>(M9*M4)-M5</f>
+        <v>9.0954377516708929E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>16924.45</v>
@@ -3269,7 +4791,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>16594.400000000001</v>
@@ -3304,7 +4826,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>15703.7</v>
@@ -3339,7 +4861,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>17243.2</v>
@@ -3374,7 +4896,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>17485.7</v>
@@ -3409,7 +4931,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>17102.099999999999</v>
@@ -3444,7 +4966,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>18130.7</v>
@@ -3479,7 +5001,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>18871.95</v>
@@ -3514,7 +5036,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>18131.7</v>
@@ -3549,7 +5071,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>17811.599999999999</v>
@@ -3584,7 +5106,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>17360.099999999999</v>
@@ -3619,7 +5141,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>17427.95</v>
@@ -3654,7 +5176,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>18124.8</v>
@@ -3689,7 +5211,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>18579.400000000001</v>
@@ -3724,7 +5246,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>19246.5</v>
@@ -3759,7 +5281,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>19784</v>
@@ -3794,7 +5316,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>19258.150000000001</v>
@@ -3829,7 +5351,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>19622.400000000001</v>
@@ -3864,7 +5386,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>19064.05</v>
@@ -3898,12 +5420,16 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
       <c r="J35">
         <f>SUM(J2:J34)</f>
-        <v>736</v>
+        <v>672.95000000000073</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backtest results/Nifty covered call (monthly).xlsx
+++ b/backtest results/Nifty covered call (monthly).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B07568-99BD-A141-944A-6711EA91F3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA5C1C4-8452-394D-B0DB-0CC0F90196DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="month expiry to expiry" sheetId="4" r:id="rId1"/>
-    <sheet name="calendar month" sheetId="2" r:id="rId2"/>
+    <sheet name="month expiry to expiry - 300otm" sheetId="5" r:id="rId2"/>
+    <sheet name="calendar month" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -313,6 +314,18 @@
   </si>
   <si>
     <t>close</t>
+  </si>
+  <si>
+    <t>call strike</t>
+  </si>
+  <si>
+    <t>call premium</t>
+  </si>
+  <si>
+    <t>atm call pnl</t>
+  </si>
+  <si>
+    <t>Strategy: Keep 300 pts difference. If spot is quite below, sell at the buying price of spot</t>
   </si>
 </sst>
 </file>
@@ -1278,6 +1291,513 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'month expiry to expiry - 300otm'!$J$2:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-37.850000000000364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-30.450000000000728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-376.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-558.15000000000146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-324.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-272.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-259.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-164.70000000000073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE2-4E47-B978-2CBC5792A723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'month expiry to expiry - 300otm'!$K$2:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-37.850000000000364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-190.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-536.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-718.15000000000146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-384.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-272.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-359.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-164.70000000000073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DE2-4E47-B978-2CBC5792A723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2018701344"/>
+        <c:axId val="2018648416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2018701344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018648416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2018648416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018701344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'calendar month'!$J$1</c:f>
@@ -1664,6 +2184,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2168,6 +2728,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2712,6 +3775,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A536393-A269-E835-47C9-9B14B9A31DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3051,8 +4155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EC9B32-201A-2948-B0D1-F0DBC04E9E60}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3154,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:K34" si="2">G3-I3</f>
+        <f t="shared" ref="J3:J34" si="2">G3-I3</f>
         <v>50</v>
       </c>
       <c r="L3" t="s">
@@ -4143,6 +5247,1235 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3996DEA-10BF-BC45-996B-A56CB4C67697}">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>15097.35</v>
+      </c>
+      <c r="E2">
+        <v>14324.9</v>
+      </c>
+      <c r="F2">
+        <v>15400</v>
+      </c>
+      <c r="G2">
+        <v>160</v>
+      </c>
+      <c r="H2">
+        <f>E2-F2</f>
+        <v>-1075.1000000000004</v>
+      </c>
+      <c r="I2">
+        <f>IF(H2&lt;0,0,H2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>G2-I2</f>
+        <v>160</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIF($J$2:$J$200,"&gt;0")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>14324.9</v>
+      </c>
+      <c r="E3">
+        <v>14894.9</v>
+      </c>
+      <c r="F3">
+        <v>15100</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="0">E3-F3</f>
+        <v>-205.10000000000036</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I34" si="1">IF(H3&lt;0,0,H3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J34" si="2">G3-I3</f>
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3">
+        <f>COUNTIF($J$2:$J$200,"&lt;=0")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>14894.9</v>
+      </c>
+      <c r="E4">
+        <v>15337.85</v>
+      </c>
+      <c r="F4">
+        <v>15100</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>237.85000000000036</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>237.85000000000036</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>-37.850000000000364</v>
+      </c>
+      <c r="K4">
+        <v>-37.850000000000364</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="1">
+        <f>P2/(P2+P3)</f>
+        <v>0.76470588235294112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>15337.85</v>
+      </c>
+      <c r="E5">
+        <v>15790.45</v>
+      </c>
+      <c r="F5">
+        <v>15600</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>190.45000000000073</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>190.45000000000073</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>-30.450000000000728</v>
+      </c>
+      <c r="K5">
+        <v>-190.45000000000073</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2">
+        <f>100%-P4</f>
+        <v>0.23529411764705888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>15790.45</v>
+      </c>
+      <c r="E6">
+        <v>15778.45</v>
+      </c>
+      <c r="F6">
+        <v>16100</v>
+      </c>
+      <c r="G6">
+        <v>160</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-321.54999999999927</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>15778.45</v>
+      </c>
+      <c r="E7">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="F7">
+        <v>16100</v>
+      </c>
+      <c r="G7">
+        <v>160</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>536.90000000000146</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>536.90000000000146</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>-376.90000000000146</v>
+      </c>
+      <c r="K7">
+        <v>-536.90000000000146</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="3">
+        <f>AVERAGEIF($J$2:$J$200,"&gt;0")</f>
+        <v>102.1480769230768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="E8">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="F8">
+        <v>16900</v>
+      </c>
+      <c r="G8">
+        <v>160</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>718.15000000000146</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>718.15000000000146</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>-558.15000000000146</v>
+      </c>
+      <c r="K8">
+        <v>-718.15000000000146</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="3">
+        <f>AVERAGEIF($J$2:$J$200,"&lt;=0")</f>
+        <v>-253.01875000000041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="E9">
+        <v>17857.25</v>
+      </c>
+      <c r="F9">
+        <v>17900</v>
+      </c>
+      <c r="G9">
+        <v>160</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-42.75</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K9">
+        <v>42.75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="3">
+        <f>P7/ABS(P8)</f>
+        <v>0.4037174198476462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>17857.25</v>
+      </c>
+      <c r="E10">
+        <v>17536.25</v>
+      </c>
+      <c r="F10">
+        <v>18100</v>
+      </c>
+      <c r="G10">
+        <v>160</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-563.75</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>17536.25</v>
+      </c>
+      <c r="E11">
+        <v>17203.95</v>
+      </c>
+      <c r="F11">
+        <v>17800</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-596.04999999999927</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <f>MAX($J$2:$J$200)</f>
+        <v>315.84999999999673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>17203.95</v>
+      </c>
+      <c r="E12">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="F12">
+        <v>17800</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-689.84999999999854</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12">
+        <f>MIN($J$2:$J$200)</f>
+        <v>-558.15000000000146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="E13">
+        <v>16247.95</v>
+      </c>
+      <c r="F13">
+        <v>17800</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-1552.0499999999993</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>16247.95</v>
+      </c>
+      <c r="E14">
+        <v>17222.75</v>
+      </c>
+      <c r="F14">
+        <v>17800</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-577.25</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="3">
+        <f>(P4*P7)+(P5*P8)</f>
+        <v>18.579411764705668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>17222.75</v>
+      </c>
+      <c r="E15">
+        <v>17245.05</v>
+      </c>
+      <c r="F15">
+        <v>17800</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-554.95000000000073</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>60</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="3">
+        <f>(P9*P4)-P5</f>
+        <v>7.3430968118788187E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>17245.05</v>
+      </c>
+      <c r="E16">
+        <v>16170.15</v>
+      </c>
+      <c r="F16">
+        <v>17800</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-1629.8500000000004</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>16170.15</v>
+      </c>
+      <c r="E17">
+        <v>15780.25</v>
+      </c>
+      <c r="F17">
+        <v>17800</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-2019.75</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>15780.25</v>
+      </c>
+      <c r="E18">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="F18">
+        <v>17800</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-870.40000000000146</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="E19">
+        <v>17522.45</v>
+      </c>
+      <c r="F19">
+        <v>17800</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-277.54999999999927</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>17522.45</v>
+      </c>
+      <c r="E20">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="F20">
+        <v>17800</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-981.90000000000146</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="E21">
+        <v>17736.95</v>
+      </c>
+      <c r="F21">
+        <v>17800</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-63.049999999999272</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>17736.95</v>
+      </c>
+      <c r="E22">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="F22">
+        <v>18000</v>
+      </c>
+      <c r="G22">
+        <v>160</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>484.09999999999854</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>484.09999999999854</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>-324.09999999999854</v>
+      </c>
+      <c r="K22">
+        <v>-384.09999999999854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="E23">
+        <v>18191</v>
+      </c>
+      <c r="F23">
+        <v>18700</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>-509</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>18191</v>
+      </c>
+      <c r="E24">
+        <v>17891.95</v>
+      </c>
+      <c r="F24">
+        <v>18500</v>
+      </c>
+      <c r="G24">
+        <v>150</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>-608.04999999999927</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="K24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>17891.95</v>
+      </c>
+      <c r="E25">
+        <v>17511.25</v>
+      </c>
+      <c r="F25">
+        <v>18500</v>
+      </c>
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>-988.75</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>60</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>17511.25</v>
+      </c>
+      <c r="E26">
+        <v>17080.7</v>
+      </c>
+      <c r="F26">
+        <v>18500</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-1419.2999999999993</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>17080.7</v>
+      </c>
+      <c r="E27">
+        <v>17915.05</v>
+      </c>
+      <c r="F27">
+        <v>18500</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-584.95000000000073</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>200</v>
+      </c>
+      <c r="P27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>17915.05</v>
+      </c>
+      <c r="E28">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="F28">
+        <v>18500</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>-178.84999999999854</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>60</v>
+      </c>
+      <c r="O28">
+        <v>300</v>
+      </c>
+      <c r="P28">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="E29">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="F29">
+        <v>18500</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>472.09999999999854</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>472.09999999999854</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>-272.09999999999854</v>
+      </c>
+      <c r="K29">
+        <v>-272.09999999999854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="E30">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="F30">
+        <v>19200</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>459.90000000000146</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>459.90000000000146</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>-259.90000000000146</v>
+      </c>
+      <c r="K30">
+        <v>-359.90000000000146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="E31">
+        <v>19253.8</v>
+      </c>
+      <c r="F31">
+        <v>19900</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-646.20000000000073</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>19253.8</v>
+      </c>
+      <c r="E32">
+        <v>19523.55</v>
+      </c>
+      <c r="F32">
+        <v>19600</v>
+      </c>
+      <c r="G32">
+        <v>120</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-76.450000000000728</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="K32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33">
+        <v>19523.55</v>
+      </c>
+      <c r="E33">
+        <v>18857.25</v>
+      </c>
+      <c r="F33">
+        <v>19800</v>
+      </c>
+      <c r="G33">
+        <v>160</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>-942.75</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34">
+        <v>18857.25</v>
+      </c>
+      <c r="E34">
+        <v>19794.7</v>
+      </c>
+      <c r="F34">
+        <v>19600</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>194.70000000000073</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>194.70000000000073</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>-164.70000000000073</v>
+      </c>
+      <c r="K34">
+        <v>-164.70000000000073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35">
+        <f>SUM(J2:J34)</f>
+        <v>315.84999999999673</v>
+      </c>
+      <c r="K35">
+        <v>318.59999999999673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>

--- a/backtest results/Nifty covered call (monthly).xlsx
+++ b/backtest results/Nifty covered call (monthly).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA5C1C4-8452-394D-B0DB-0CC0F90196DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C802CAB-C036-3E48-A285-6306797461C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="month expiry to expiry" sheetId="4" r:id="rId1"/>
-    <sheet name="month expiry to expiry - 300otm" sheetId="5" r:id="rId2"/>
-    <sheet name="calendar month" sheetId="2" r:id="rId3"/>
+    <sheet name="month expiry - always ATM" sheetId="6" r:id="rId2"/>
+    <sheet name="month expiry to expiry - 300otm" sheetId="5" r:id="rId3"/>
+    <sheet name="calendar month" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -326,6 +327,9 @@
   </si>
   <si>
     <t>Strategy: Keep 300 pts difference. If spot is quite below, sell at the buying price of spot</t>
+  </si>
+  <si>
+    <t>cumulative</t>
   </si>
 </sst>
 </file>
@@ -1284,6 +1288,730 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'month expiry to expiry'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'month expiry to expiry'!$K$2:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312.14999999999964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.69999999999891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>421.69999999999891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-115.20000000000255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-833.350000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-790.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-490.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-290.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-230.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-190.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-185.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-125.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-65.600000000004002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-60.600000000004002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-55.600000000004002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-25.600000000004002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>174.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>189.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-194.70000000000255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105.29999999999745</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255.29999999999745</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315.29999999999745</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>330.29999999999745</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>335.29999999999745</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>395.29999999999745</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>123.19999999999891</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-236.70000000000255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.299999999997453</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>183.29999999999745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>483.29999999999745</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>318.59999999999673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B81-FB47-AA18-3C189C1A9BC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="96200303"/>
+        <c:axId val="95601775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96200303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95601775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95601775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96200303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'month expiry - always ATM'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>call pnl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'month expiry - always ATM'!$J$2:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-294.89999999999964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-137.85000000000036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-190.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-536.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-718.15000000000146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-722.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>254.95000000000073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-829.59999999999854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-322.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-636.95000000000073</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-484.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-515.04999999999927</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-121.15000000000146</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-372.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-359.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-23.549999999999272</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-694.70000000000073</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2162.8500000000022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EA5-4942-90BE-BF12EED214E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1445187344"/>
+        <c:axId val="1445033744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1445187344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445033744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1445033744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445187344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1744,7 +2472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2224,6 +2952,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2728,7 +3536,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2836,6 +3644,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2846,6 +3659,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2877,6 +3695,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3733,20 +4554,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3771,10 +5598,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17C9D49-1FFB-1B34-C3A8-46FBF27A8502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5D1FD5-C56F-E342-AFCF-54D5B0453F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3815,7 +5721,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4155,8 +6061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EC9B32-201A-2948-B0D1-F0DBC04E9E60}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4196,6 +6102,9 @@
       <c r="J1" t="s">
         <v>41</v>
       </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4225,6 +6134,10 @@
         <f>G2-I2</f>
         <v>300</v>
       </c>
+      <c r="K2">
+        <f>J2</f>
+        <v>300</v>
+      </c>
       <c r="L2" t="s">
         <v>43</v>
       </c>
@@ -4261,6 +6174,10 @@
         <f t="shared" ref="J3:J34" si="2">G3-I3</f>
         <v>50</v>
       </c>
+      <c r="K3">
+        <f>J3+K2</f>
+        <v>350</v>
+      </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
@@ -4297,6 +6214,10 @@
         <f t="shared" si="2"/>
         <v>-37.850000000000364</v>
       </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K34" si="3">J4+K3</f>
+        <v>312.14999999999964</v>
+      </c>
       <c r="L4" t="s">
         <v>45</v>
       </c>
@@ -4333,6 +6254,10 @@
         <f t="shared" si="2"/>
         <v>-190.45000000000073</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>121.69999999999891</v>
+      </c>
       <c r="L5" t="s">
         <v>46</v>
       </c>
@@ -4369,6 +6294,10 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>421.69999999999891</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4398,6 +6327,10 @@
         <f t="shared" si="2"/>
         <v>-536.90000000000146</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>-115.20000000000255</v>
+      </c>
       <c r="L7" t="s">
         <v>47</v>
       </c>
@@ -4434,6 +6367,10 @@
         <f t="shared" si="2"/>
         <v>-718.15000000000146</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>-833.350000000004</v>
+      </c>
       <c r="L8" t="s">
         <v>48</v>
       </c>
@@ -4470,6 +6407,10 @@
         <f t="shared" si="2"/>
         <v>42.75</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>-790.600000000004</v>
+      </c>
       <c r="L9" t="s">
         <v>49</v>
       </c>
@@ -4506,6 +6447,10 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>-490.600000000004</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4535,6 +6480,10 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>-290.600000000004</v>
+      </c>
       <c r="L11" t="s">
         <v>50</v>
       </c>
@@ -4571,6 +6520,10 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>-230.600000000004</v>
+      </c>
       <c r="L12" t="s">
         <v>51</v>
       </c>
@@ -4607,6 +6560,10 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>-190.600000000004</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4636,6 +6593,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>-185.600000000004</v>
+      </c>
       <c r="L14" t="s">
         <v>52</v>
       </c>
@@ -4672,6 +6633,10 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>-125.600000000004</v>
+      </c>
       <c r="L15" t="s">
         <v>53</v>
       </c>
@@ -4708,8 +6673,12 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>-65.600000000004002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -4737,8 +6706,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>-60.600000000004002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -4766,8 +6739,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>-55.600000000004002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -4795,8 +6772,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>-25.600000000004002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -4824,8 +6805,12 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>174.399999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -4853,8 +6838,12 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>189.399999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -4882,8 +6871,12 @@
         <f t="shared" si="2"/>
         <v>-384.09999999999854</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>-194.70000000000255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -4911,8 +6904,12 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>105.29999999999745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -4940,8 +6937,12 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>255.29999999999745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -4969,8 +6970,12 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>315.29999999999745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -4998,8 +7003,12 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>330.29999999999745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -5027,8 +7036,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>335.29999999999745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -5056,8 +7069,12 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>395.29999999999745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -5085,8 +7102,12 @@
         <f t="shared" si="2"/>
         <v>-272.09999999999854</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>123.19999999999891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -5114,8 +7135,12 @@
         <f t="shared" si="2"/>
         <v>-359.90000000000146</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>-236.70000000000255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -5143,8 +7168,12 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>63.299999999997453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -5172,8 +7201,12 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>183.29999999999745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -5201,8 +7234,12 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>483.29999999999745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -5230,8 +7267,12 @@
         <f t="shared" si="2"/>
         <v>-164.70000000000073</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>318.59999999999673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>54</v>
       </c>
@@ -5247,11 +7288,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE79CB69-617B-754A-A584-16FD5CFFED71}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>15097.35</v>
+      </c>
+      <c r="E2">
+        <v>14324.9</v>
+      </c>
+      <c r="F2">
+        <v>15100</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
+      <c r="H2">
+        <f>E2-F2</f>
+        <v>-775.10000000000036</v>
+      </c>
+      <c r="I2">
+        <f>IF(H2&lt;0,0,H2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>G2-I2</f>
+        <v>300</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF($J$2:$J$200,"&gt;0")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>14324.9</v>
+      </c>
+      <c r="E3">
+        <v>14894.9</v>
+      </c>
+      <c r="F3">
+        <v>14300</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="0">E3-F3</f>
+        <v>594.89999999999964</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I34" si="1">IF(H3&lt;0,0,H3)</f>
+        <v>594.89999999999964</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J34" si="2">G3-I3</f>
+        <v>-294.89999999999964</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIF($J$2:$J$200,"&lt;=0")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>14894.9</v>
+      </c>
+      <c r="E4">
+        <v>15337.85</v>
+      </c>
+      <c r="F4">
+        <v>14900</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>437.85000000000036</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>437.85000000000036</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>-137.85000000000036</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1">
+        <f>M2/(M2+M3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>15337.85</v>
+      </c>
+      <c r="E5">
+        <v>15790.45</v>
+      </c>
+      <c r="F5">
+        <v>15300</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>490.45000000000073</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>490.45000000000073</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>-190.45000000000073</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <f>100%-M4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>15790.45</v>
+      </c>
+      <c r="E6">
+        <v>15778.45</v>
+      </c>
+      <c r="F6">
+        <v>15800</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-21.549999999999272</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>15778.45</v>
+      </c>
+      <c r="E7">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="F7">
+        <v>15800</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>836.90000000000146</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>836.90000000000146</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>-536.90000000000146</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="3">
+        <f>AVERAGEIF($J$2:$J$200,"&gt;0")</f>
+        <v>282.21764705882356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="E8">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="F8">
+        <v>16600</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1018.1500000000015</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1018.1500000000015</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>-718.15000000000146</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="3">
+        <f>AVERAGEIF($J$2:$J$200,"&lt;=0")</f>
+        <v>-536.67058823529442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="E9">
+        <v>17857.25</v>
+      </c>
+      <c r="F9">
+        <v>17600</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>257.25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>257.25</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>42.75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="3">
+        <f>M7/ABS(M8)</f>
+        <v>0.52586754937852098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>17857.25</v>
+      </c>
+      <c r="E10">
+        <v>17536.25</v>
+      </c>
+      <c r="F10">
+        <v>17800</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-263.75</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>17536.25</v>
+      </c>
+      <c r="E11">
+        <v>17203.95</v>
+      </c>
+      <c r="F11">
+        <v>17500</v>
+      </c>
+      <c r="G11">
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-296.04999999999927</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <f>MAX($J$2:$J$200)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>17203.95</v>
+      </c>
+      <c r="E12">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="F12">
+        <v>17200</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-89.849999999998545</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12">
+        <f>MIN($J$2:$J$200)</f>
+        <v>-2162.8500000000022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="E13">
+        <v>16247.95</v>
+      </c>
+      <c r="F13">
+        <v>17100</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-852.04999999999927</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>16247.95</v>
+      </c>
+      <c r="E14">
+        <v>17222.75</v>
+      </c>
+      <c r="F14">
+        <v>16200</v>
+      </c>
+      <c r="G14">
+        <v>300</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1022.75</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1022.75</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>-722.75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="3">
+        <f>(M4*M7)+(M5*M8)</f>
+        <v>-127.22647058823543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>17222.75</v>
+      </c>
+      <c r="E15">
+        <v>17245.05</v>
+      </c>
+      <c r="F15">
+        <v>17200</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>45.049999999999272</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>45.049999999999272</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>254.95000000000073</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="3">
+        <f>(M9*M4)-M5</f>
+        <v>-0.23706622531073951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>17245.05</v>
+      </c>
+      <c r="E16">
+        <v>16170.15</v>
+      </c>
+      <c r="F16">
+        <v>17200</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-1029.8500000000004</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>16170.15</v>
+      </c>
+      <c r="E17">
+        <v>15780.25</v>
+      </c>
+      <c r="F17">
+        <v>16200</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-419.75</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>15780.25</v>
+      </c>
+      <c r="E18">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="F18">
+        <v>15800</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1129.5999999999985</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1129.5999999999985</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>-829.59999999999854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="E19">
+        <v>17522.45</v>
+      </c>
+      <c r="F19">
+        <v>16900</v>
+      </c>
+      <c r="G19">
+        <v>300</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>622.45000000000073</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>622.45000000000073</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>-322.45000000000073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>17522.45</v>
+      </c>
+      <c r="E20">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="F20">
+        <v>17500</v>
+      </c>
+      <c r="G20">
+        <v>300</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-681.90000000000146</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="E21">
+        <v>17736.95</v>
+      </c>
+      <c r="F21">
+        <v>16800</v>
+      </c>
+      <c r="G21">
+        <v>300</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>936.95000000000073</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>936.95000000000073</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>-636.95000000000073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>17736.95</v>
+      </c>
+      <c r="E22">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="F22">
+        <v>17700</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>784.09999999999854</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>784.09999999999854</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>-484.09999999999854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="E23">
+        <v>18191</v>
+      </c>
+      <c r="F23">
+        <v>18500</v>
+      </c>
+      <c r="G23">
+        <v>300</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>-309</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>18191</v>
+      </c>
+      <c r="E24">
+        <v>17891.95</v>
+      </c>
+      <c r="F24">
+        <v>18200</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>-308.04999999999927</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>17891.95</v>
+      </c>
+      <c r="E25">
+        <v>17511.25</v>
+      </c>
+      <c r="F25">
+        <v>17900</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>-388.75</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>17511.25</v>
+      </c>
+      <c r="E26">
+        <v>17080.7</v>
+      </c>
+      <c r="F26">
+        <v>17500</v>
+      </c>
+      <c r="G26">
+        <v>300</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-419.29999999999927</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>17080.7</v>
+      </c>
+      <c r="E27">
+        <v>17915.05</v>
+      </c>
+      <c r="F27">
+        <v>17100</v>
+      </c>
+      <c r="G27">
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>815.04999999999927</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>815.04999999999927</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>-515.04999999999927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>17915.05</v>
+      </c>
+      <c r="E28">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="F28">
+        <v>17900</v>
+      </c>
+      <c r="G28">
+        <v>300</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>421.15000000000146</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>421.15000000000146</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>-121.15000000000146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="E29">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="F29">
+        <v>18300</v>
+      </c>
+      <c r="G29">
+        <v>300</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>672.09999999999854</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>672.09999999999854</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>-372.09999999999854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="E30">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="F30">
+        <v>19000</v>
+      </c>
+      <c r="G30">
+        <v>300</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>659.90000000000146</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>659.90000000000146</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>-359.90000000000146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="E31">
+        <v>19253.8</v>
+      </c>
+      <c r="F31">
+        <v>19600</v>
+      </c>
+      <c r="G31">
+        <v>300</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-346.20000000000073</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>19253.8</v>
+      </c>
+      <c r="E32">
+        <v>19523.55</v>
+      </c>
+      <c r="F32">
+        <v>19200</v>
+      </c>
+      <c r="G32">
+        <v>300</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>323.54999999999927</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>323.54999999999927</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>-23.549999999999272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33">
+        <v>19523.55</v>
+      </c>
+      <c r="E33">
+        <v>18857.25</v>
+      </c>
+      <c r="F33">
+        <v>19500</v>
+      </c>
+      <c r="G33">
+        <v>300</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>-642.75</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34">
+        <v>18857.25</v>
+      </c>
+      <c r="E34">
+        <v>19794.7</v>
+      </c>
+      <c r="F34">
+        <v>18800</v>
+      </c>
+      <c r="G34">
+        <v>300</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>994.70000000000073</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>994.70000000000073</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>-694.70000000000073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35">
+        <f>SUM(J2:J34)</f>
+        <v>-2162.8500000000022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3996DEA-10BF-BC45-996B-A56CB4C67697}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6475,7 +9611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>

--- a/backtest results/Nifty covered call (monthly).xlsx
+++ b/backtest results/Nifty covered call (monthly).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C802CAB-C036-3E48-A285-6306797461C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A949513A-42A2-9F4B-AD4B-163EDDA90963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,11 @@
     <sheet name="month expiry - always ATM" sheetId="6" r:id="rId2"/>
     <sheet name="month expiry to expiry - 300otm" sheetId="5" r:id="rId3"/>
     <sheet name="calendar month" sheetId="2" r:id="rId4"/>
+    <sheet name="open close" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'open close'!$A$1:$A$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -2832,6 +2836,366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'open close'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spot diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'open close'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-1074.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-862.20000000000073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-772.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-704.35000000000218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-666.29999999999927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-430.54999999999927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-406.10000000000218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-389.89999999999964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-380.70000000000073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-332.29999999999927</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-321</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-299.04999999999927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-293.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-93.799999999999272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.299999999999272</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>239.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>269.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>406.10000000000218</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>442.95000000000073</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>452.60000000000036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>592.85000000000218</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>650.94999999999709</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>687.80000000000291</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>747.14999999999782</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>834.34999999999854</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>858.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>918.85000000000218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>937.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>974.79999999999927</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>981.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1149.3499999999985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A22-064D-9FB0-19990B75521A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="650045583"/>
+        <c:axId val="650047311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650045583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650047311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650047311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650045583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3032,6 +3396,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5058,6 +5462,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5742,6 +6649,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96675C6F-7FE2-0309-90B0-624CB72AA356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EF62DB-6FA7-C59E-5E1C-D52160282267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6061,8 +7009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EC9B32-201A-2948-B0D1-F0DBC04E9E60}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10901,4 +11849,195 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F8634-9262-464A-A186-58DAA03B4997}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1074.8999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-862.20000000000073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-772.45000000000073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-704.35000000000218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-666.29999999999927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-430.54999999999927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-406.10000000000218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-389.89999999999964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-380.70000000000073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-332.29999999999927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-299.04999999999927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-293.09999999999854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-93.799999999999272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>22.299999999999272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>239.09999999999854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>269.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>406.10000000000218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>442.95000000000073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>452.60000000000036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>592.85000000000218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>650.94999999999709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>687.80000000000291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>747.14999999999782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>834.34999999999854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>858.45000000000073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>918.85000000000218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>937.45000000000073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>974.79999999999927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>981.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1149.3499999999985</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A36" xr:uid="{573F8634-9262-464A-A186-58DAA03B4997}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A36">
+      <sortCondition ref="A1:A36"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/backtest results/Nifty covered call (monthly).xlsx
+++ b/backtest results/Nifty covered call (monthly).xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A949513A-42A2-9F4B-AD4B-163EDDA90963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C507FD-4AE7-6146-B3CB-E7CAB1C17304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="month expiry to expiry" sheetId="4" r:id="rId1"/>
-    <sheet name="month expiry - always ATM" sheetId="6" r:id="rId2"/>
-    <sheet name="month expiry to expiry - 300otm" sheetId="5" r:id="rId3"/>
-    <sheet name="calendar month" sheetId="2" r:id="rId4"/>
-    <sheet name="open close" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="month expiry - always ATM" sheetId="6" r:id="rId3"/>
+    <sheet name="month expiry to expiry - 300otm" sheetId="5" r:id="rId4"/>
+    <sheet name="calendar month" sheetId="2" r:id="rId5"/>
+    <sheet name="open close" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'open close'!$A$1:$A$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'open close'!$A$1:$A$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -334,6 +335,9 @@
   </si>
   <si>
     <t>cumulative</t>
+  </si>
+  <si>
+    <t>cum pnl</t>
   </si>
 </sst>
 </file>
@@ -1653,6 +1657,367 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'month expiry to expiry'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cum pnl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'month expiry to expiry'!$L$2:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>-472.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.54999999999927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>552.64999999999964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>814.79999999999927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1102.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1424.3499999999967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1687.4499999999953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1969.2999999999938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1948.2999999999938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1815.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1782.1999999999953</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>959.99999999999636</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1939.7999999999938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022.0999999999967</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1007.1999999999953</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>622.29999999999563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1776.6499999999924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2399.4999999999982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1895.1499999999924</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2828.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3192.0499999999938</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3198.9499999999953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3049.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2729.1999999999953</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2313.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3152.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3619.0999999999967</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3997.9499999999953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4325.8499999999967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4219.7499999999982</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4609.4999999999982</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4243.1999999999953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5015.9499999999953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98C7-5F46-86EC-FABBED7A2020}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="429499999"/>
+        <c:axId val="1258094591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="429499999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258094591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1258094591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429499999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1969,7 +2334,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2476,7 +2841,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2836,7 +3201,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3436,6 +3801,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4456,7 +4861,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4564,6 +4969,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4574,6 +4984,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4605,6 +5020,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6467,20 +6885,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6507,16 +7428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6536,6 +7457,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC9D1BB-297A-DF80-8E03-A53EC8C487C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7007,10 +7964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EC9B32-201A-2948-B0D1-F0DBC04E9E60}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7019,7 +7976,7 @@
     <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -7053,8 +8010,11 @@
       <c r="K1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -7086,15 +8046,19 @@
         <f>J2</f>
         <v>300</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <f>K2+E2-$B$2</f>
+        <v>-472.45000000000073</v>
+      </c>
+      <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>COUNTIF($J$2:$J$200,"&gt;0")</f>
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -7126,15 +8090,19 @@
         <f>J3+K2</f>
         <v>350</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <f t="shared" ref="L3:L34" si="3">K3+E3-$B$2</f>
+        <v>147.54999999999927</v>
+      </c>
+      <c r="M3" t="s">
         <v>44</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>COUNTIF($J$2:$J$200,"&lt;=0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -7163,18 +8131,22 @@
         <v>-37.850000000000364</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K34" si="3">J4+K3</f>
+        <f t="shared" ref="K4:K34" si="4">J4+K3</f>
         <v>312.14999999999964</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>552.64999999999964</v>
+      </c>
+      <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="1">
-        <f>M2/(M2+M3)</f>
+      <c r="N4" s="1">
+        <f>N2/(N2+N3)</f>
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -7203,18 +8175,22 @@
         <v>-190.45000000000073</v>
       </c>
       <c r="K5">
+        <f t="shared" si="4"/>
+        <v>121.69999999999891</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="3"/>
-        <v>121.69999999999891</v>
-      </c>
-      <c r="L5" t="s">
+        <v>814.79999999999927</v>
+      </c>
+      <c r="M5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="2">
-        <f>100%-M4</f>
+      <c r="N5" s="2">
+        <f>100%-N4</f>
         <v>0.23529411764705888</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -7243,11 +8219,15 @@
         <v>300</v>
       </c>
       <c r="K6">
+        <f t="shared" si="4"/>
+        <v>421.69999999999891</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="3"/>
-        <v>421.69999999999891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1102.7999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -7276,18 +8256,22 @@
         <v>-536.90000000000146</v>
       </c>
       <c r="K7">
+        <f t="shared" si="4"/>
+        <v>-115.20000000000255</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="3"/>
-        <v>-115.20000000000255</v>
-      </c>
-      <c r="L7" t="s">
+        <v>1424.3499999999967</v>
+      </c>
+      <c r="M7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <f>AVERAGEIF($J$2:$J$200,"&gt;0")</f>
         <v>126.97499999999988</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -7316,18 +8300,22 @@
         <v>-718.15000000000146</v>
       </c>
       <c r="K8">
+        <f t="shared" si="4"/>
+        <v>-833.350000000004</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="3"/>
-        <v>-833.350000000004</v>
-      </c>
-      <c r="L8" t="s">
+        <v>1687.4499999999953</v>
+      </c>
+      <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <f>AVERAGEIF($J$2:$J$200,"&lt;=0")</f>
         <v>-333.01875000000041</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -7356,18 +8344,22 @@
         <v>42.75</v>
       </c>
       <c r="K9">
+        <f t="shared" si="4"/>
+        <v>-790.600000000004</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="3"/>
-        <v>-790.600000000004</v>
-      </c>
-      <c r="L9" t="s">
+        <v>1969.2999999999938</v>
+      </c>
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="3">
-        <f>M7/ABS(M8)</f>
+      <c r="N9" s="3">
+        <f>N7/ABS(N8)</f>
         <v>0.38128483756545156</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -7396,11 +8388,15 @@
         <v>300</v>
       </c>
       <c r="K10">
+        <f t="shared" si="4"/>
+        <v>-490.600000000004</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="3"/>
-        <v>-490.600000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1948.2999999999938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -7429,18 +8425,22 @@
         <v>200</v>
       </c>
       <c r="K11">
+        <f t="shared" si="4"/>
+        <v>-290.600000000004</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="3"/>
-        <v>-290.600000000004</v>
-      </c>
-      <c r="L11" t="s">
+        <v>1815.9999999999982</v>
+      </c>
+      <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f>MAX($J$2:$J$200)</f>
         <v>318.59999999999673</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -7469,18 +8469,22 @@
         <v>60</v>
       </c>
       <c r="K12">
+        <f t="shared" si="4"/>
+        <v>-230.600000000004</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="3"/>
-        <v>-230.600000000004</v>
-      </c>
-      <c r="L12" t="s">
+        <v>1782.1999999999953</v>
+      </c>
+      <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f>MIN($J$2:$J$200)</f>
         <v>-718.15000000000146</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -7509,11 +8513,15 @@
         <v>40</v>
       </c>
       <c r="K13">
+        <f t="shared" si="4"/>
+        <v>-190.600000000004</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="3"/>
-        <v>-190.600000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>959.99999999999636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -7542,18 +8550,22 @@
         <v>5</v>
       </c>
       <c r="K14">
+        <f t="shared" si="4"/>
+        <v>-185.600000000004</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="3"/>
-        <v>-185.600000000004</v>
-      </c>
-      <c r="L14" t="s">
+        <v>1939.7999999999938</v>
+      </c>
+      <c r="M14" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="3">
-        <f>(M4*M7)+(M5*M8)</f>
+      <c r="N14" s="3">
+        <f>(N4*N7)+(N5*N8)</f>
         <v>18.741176470588016</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -7582,18 +8594,22 @@
         <v>60</v>
       </c>
       <c r="K15">
+        <f t="shared" si="4"/>
+        <v>-125.600000000004</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="3"/>
-        <v>-125.600000000004</v>
-      </c>
-      <c r="L15" t="s">
+        <v>2022.0999999999967</v>
+      </c>
+      <c r="M15" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="3">
-        <f>(M9*M4)-M5</f>
+      <c r="N15" s="3">
+        <f>(N9*N4)-N5</f>
         <v>5.6276640491227603E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -7622,11 +8638,15 @@
         <v>60</v>
       </c>
       <c r="K16">
+        <f t="shared" si="4"/>
+        <v>-65.600000000004002</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="3"/>
-        <v>-65.600000000004002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1007.1999999999953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -7655,11 +8675,15 @@
         <v>5</v>
       </c>
       <c r="K17">
+        <f t="shared" si="4"/>
+        <v>-60.600000000004002</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="3"/>
-        <v>-60.600000000004002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>622.29999999999563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -7688,11 +8712,15 @@
         <v>5</v>
       </c>
       <c r="K18">
+        <f t="shared" si="4"/>
+        <v>-55.600000000004002</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="3"/>
-        <v>-55.600000000004002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1776.6499999999924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -7721,11 +8749,15 @@
         <v>30</v>
       </c>
       <c r="K19">
+        <f t="shared" si="4"/>
+        <v>-25.600000000004002</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="3"/>
-        <v>-25.600000000004002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2399.4999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -7754,11 +8786,15 @@
         <v>200</v>
       </c>
       <c r="K20">
+        <f t="shared" si="4"/>
+        <v>174.399999999996</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="3"/>
-        <v>174.399999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1895.1499999999924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -7787,11 +8823,15 @@
         <v>15</v>
       </c>
       <c r="K21">
+        <f t="shared" si="4"/>
+        <v>189.399999999996</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="3"/>
-        <v>189.399999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2828.9999999999982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -7820,11 +8860,15 @@
         <v>-384.09999999999854</v>
       </c>
       <c r="K22">
+        <f t="shared" si="4"/>
+        <v>-194.70000000000255</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="3"/>
-        <v>-194.70000000000255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3192.0499999999938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -7853,11 +8897,15 @@
         <v>300</v>
       </c>
       <c r="K23">
+        <f t="shared" si="4"/>
+        <v>105.29999999999745</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="3"/>
-        <v>105.29999999999745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3198.9499999999953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -7886,11 +8934,15 @@
         <v>150</v>
       </c>
       <c r="K24">
+        <f t="shared" si="4"/>
+        <v>255.29999999999745</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="3"/>
-        <v>255.29999999999745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3049.8999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -7919,11 +8971,15 @@
         <v>60</v>
       </c>
       <c r="K25">
+        <f t="shared" si="4"/>
+        <v>315.29999999999745</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="3"/>
-        <v>315.29999999999745</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2729.1999999999953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -7952,11 +9008,15 @@
         <v>15</v>
       </c>
       <c r="K26">
+        <f t="shared" si="4"/>
+        <v>330.29999999999745</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="3"/>
-        <v>330.29999999999745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2313.6499999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -7985,11 +9045,15 @@
         <v>5</v>
       </c>
       <c r="K27">
+        <f t="shared" si="4"/>
+        <v>335.29999999999745</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="3"/>
-        <v>335.29999999999745</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3152.9999999999982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -8018,11 +9082,15 @@
         <v>60</v>
       </c>
       <c r="K28">
+        <f t="shared" si="4"/>
+        <v>395.29999999999745</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="3"/>
-        <v>395.29999999999745</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3619.0999999999967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -8051,11 +9119,15 @@
         <v>-272.09999999999854</v>
       </c>
       <c r="K29">
+        <f t="shared" si="4"/>
+        <v>123.19999999999891</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="3"/>
-        <v>123.19999999999891</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3997.9499999999953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -8084,11 +9156,15 @@
         <v>-359.90000000000146</v>
       </c>
       <c r="K30">
+        <f t="shared" si="4"/>
+        <v>-236.70000000000255</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="3"/>
-        <v>-236.70000000000255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4325.8499999999967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -8117,11 +9193,15 @@
         <v>300</v>
       </c>
       <c r="K31">
+        <f t="shared" si="4"/>
+        <v>63.299999999997453</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="3"/>
-        <v>63.299999999997453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4219.7499999999982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -8150,11 +9230,15 @@
         <v>120</v>
       </c>
       <c r="K32">
+        <f t="shared" si="4"/>
+        <v>183.29999999999745</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="3"/>
-        <v>183.29999999999745</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4609.4999999999982</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -8183,11 +9267,15 @@
         <v>300</v>
       </c>
       <c r="K33">
+        <f t="shared" si="4"/>
+        <v>483.29999999999745</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="3"/>
-        <v>483.29999999999745</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4243.1999999999953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -8216,11 +9304,15 @@
         <v>-164.70000000000073</v>
       </c>
       <c r="K34">
+        <f t="shared" si="4"/>
+        <v>318.59999999999673</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="3"/>
-        <v>318.59999999999673</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5015.9499999999953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>54</v>
       </c>
@@ -8236,6 +9328,431 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC62E7A-1A37-CF4F-82A8-99FEDF35032D}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="A16:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>15097.35</v>
+      </c>
+      <c r="D2">
+        <v>14324.9</v>
+      </c>
+      <c r="E2">
+        <f>D2-A2</f>
+        <v>-772.45000000000073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>14324.9</v>
+      </c>
+      <c r="D3">
+        <v>14894.9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E34" si="0">D3-A3</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>14894.9</v>
+      </c>
+      <c r="D4">
+        <v>15337.85</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>442.95000000000073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15337.85</v>
+      </c>
+      <c r="D5">
+        <v>15790.45</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>452.60000000000036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>15790.45</v>
+      </c>
+      <c r="D6">
+        <v>15778.45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>15778.45</v>
+      </c>
+      <c r="D7">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>858.45000000000073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="D8">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>981.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="D9">
+        <v>17857.25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>239.09999999999854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>17857.25</v>
+      </c>
+      <c r="D10">
+        <v>17536.25</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>17536.25</v>
+      </c>
+      <c r="D11">
+        <v>17203.95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-332.29999999999927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>17203.95</v>
+      </c>
+      <c r="D12">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-93.799999999999272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="D13">
+        <v>16247.95</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-862.20000000000073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>16247.95</v>
+      </c>
+      <c r="D14">
+        <v>17222.75</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>974.79999999999927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>17222.75</v>
+      </c>
+      <c r="D15">
+        <v>17245.05</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>22.299999999999272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17245.05</v>
+      </c>
+      <c r="D16">
+        <v>16170.15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-1074.8999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16170.15</v>
+      </c>
+      <c r="D17">
+        <v>15780.25</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-389.89999999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15780.25</v>
+      </c>
+      <c r="D18">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1149.3499999999985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="D19">
+        <v>17522.45</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>592.85000000000218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17522.45</v>
+      </c>
+      <c r="D20">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-704.35000000000218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="D21">
+        <v>17736.95</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>918.85000000000218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17736.95</v>
+      </c>
+      <c r="D22">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>747.14999999999782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="D23">
+        <v>18191</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-293.09999999999854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18191</v>
+      </c>
+      <c r="D24">
+        <v>17891.95</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-299.04999999999927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>17891.95</v>
+      </c>
+      <c r="D25">
+        <v>17511.25</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-380.70000000000073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>17511.25</v>
+      </c>
+      <c r="D26">
+        <v>17080.7</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-430.54999999999927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>17080.7</v>
+      </c>
+      <c r="D27">
+        <v>17915.05</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>834.34999999999854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>17915.05</v>
+      </c>
+      <c r="D28">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>406.10000000000218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="D29">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>650.94999999999709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="D30">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>687.80000000000291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="D31">
+        <v>19253.8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-406.10000000000218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>19253.8</v>
+      </c>
+      <c r="D32">
+        <v>19523.55</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>269.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>19523.55</v>
+      </c>
+      <c r="D33">
+        <v>18857.25</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-666.29999999999927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>18857.25</v>
+      </c>
+      <c r="D34">
+        <v>19794.7</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>937.45000000000073</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE79CB69-617B-754A-A584-16FD5CFFED71}">
   <dimension ref="A1:M35"/>
   <sheetViews>
@@ -9330,7 +10847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3996DEA-10BF-BC45-996B-A56CB4C67697}">
   <dimension ref="A1:P41"/>
   <sheetViews>
@@ -10559,7 +12076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
@@ -11851,7 +13368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F8634-9262-464A-A186-58DAA03B4997}">
   <dimension ref="A1:A34"/>
   <sheetViews>

--- a/backtest results/Nifty covered call (monthly).xlsx
+++ b/backtest results/Nifty covered call (monthly).xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniket.bhadane/Desktop/General/AniketBhadane.github.io/backtest results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C507FD-4AE7-6146-B3CB-E7CAB1C17304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A2F1D8-C1A3-024E-BBB2-9E5DD836A12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="month expiry to expiry" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="P-bfly+Call" sheetId="12" r:id="rId2"/>
     <sheet name="month expiry - always ATM" sheetId="6" r:id="rId3"/>
     <sheet name="month expiry to expiry - 300otm" sheetId="5" r:id="rId4"/>
     <sheet name="calendar month" sheetId="2" r:id="rId5"/>
-    <sheet name="open close" sheetId="7" r:id="rId6"/>
+    <sheet name="close to close" sheetId="9" r:id="rId6"/>
+    <sheet name="open close" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'open close'!$A$1:$A$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'close to close'!$A$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'open close'!$A$1:$A$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -338,6 +340,84 @@
   </si>
   <si>
     <t>cum pnl</t>
+  </si>
+  <si>
+    <t>close to close diff</t>
+  </si>
+  <si>
+    <t>sorted close to close diff</t>
+  </si>
+  <si>
+    <t>Thu Nov 30 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Dec 28 2023 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 2024 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Feb 29 2024 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>Thu Mar 28 2024 00:00:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>B1 exit</t>
+  </si>
+  <si>
+    <t>S exit</t>
+  </si>
+  <si>
+    <t>B2 exit</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>800 pts far call</t>
+  </si>
+  <si>
+    <t>B1 pnl</t>
+  </si>
+  <si>
+    <t>S pnl</t>
+  </si>
+  <si>
+    <t>B2 pnl</t>
+  </si>
+  <si>
+    <t>S entry 500 pts away</t>
+  </si>
+  <si>
+    <t>B1 entry ATM</t>
+  </si>
+  <si>
+    <t>B2 entry 1000 pts away</t>
+  </si>
+  <si>
+    <t>cum pnl bfly</t>
+  </si>
+  <si>
+    <t>call exit</t>
+  </si>
+  <si>
+    <t>close - open</t>
+  </si>
+  <si>
+    <t>bfly pnl</t>
+  </si>
+  <si>
+    <t>cum pnl call</t>
+  </si>
+  <si>
+    <t>nifty pnl</t>
+  </si>
+  <si>
+    <t>cum pnl nifty</t>
+  </si>
+  <si>
+    <t>cum strategy pnl</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1144,10 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-164.70000000000073</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>318.59999999999673</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1508,7 @@
                   <c:v>483.29999999999745</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>318.59999999999673</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,7 +1869,7 @@
                   <c:v>4243.1999999999953</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5015.9499999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,6 +2098,563 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P-bfly+Call'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cum pnl nifty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P-bfly+Call'!$Q$2:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-772.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-202.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>693.10000000000036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>681.10000000000036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1539.5500000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2759.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2438.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2106.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1150.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2125.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2147.6999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1072.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>682.89999999999964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1832.2499999999982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2425.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1720.7499999999982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2639.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3386.7499999999982</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3093.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2794.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2413.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1983.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2817.6999999999989</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3223.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3874.7499999999982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4562.5500000000011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4156.4499999999989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4426.1999999999989</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3759.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5035.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6681.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6255.2499999999982</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6885.4499999999989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7229.5500000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F13-7545-8EAA-FA20215A6410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P-bfly+Call'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cum strategy pnl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P-bfly+Call'!$R$2:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-547.55000000000109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.449999999998909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465.39999999999964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>927.54999999999927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1749.0999999999985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2562.1999999999971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2801.2999999999956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2794.0499999999956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2807.7999999999956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2803.8499999999949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2089.5999999999949</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2891.6499999999942</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2913.9499999999935</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1839.0499999999938</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1818.8999999999942</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2638.6499999999942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3231.4999999999964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2845.2499999999927</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3627.1499999999942</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4374.299999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4390.1999999999935</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4399.1999999999935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4407.2499999999927</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4395.9999999999927</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5215.299999999992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5621.3999999999942</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6272.3499999999913</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6960.1499999999942</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6950.2499999999927</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7219.9999999999927</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6910.9499999999935</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7703.6999999999935</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8520.549999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8541.8499999999913</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9172.049999999992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9516.1499999999942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F13-7545-8EAA-FA20215A6410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="627931183"/>
+        <c:axId val="627532239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="627931183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627532239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="627532239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627931183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2334,7 +2971,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2841,7 +3478,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3201,7 +3838,379 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'close to close'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sorted close to close diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'close to close'!$F$2:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-1074.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-862.20000000000073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-772.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-704.35000000000218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-666.29999999999927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-430.54999999999927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-426.10000000000218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-406.10000000000218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-389.89999999999964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-380.70000000000073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-332.29999999999927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-299.04999999999927</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-293.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-93.799999999999272</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.299999999999272</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>239.09999999999854</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>269.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>344.10000000000218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>406.10000000000218</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>442.95000000000073</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>452.60000000000036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>592.85000000000218</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>630.20000000000073</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>650.94999999999709</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>687.80000000000291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>747.14999999999782</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>834.34999999999854</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>858.45000000000073</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>918.85000000000218</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>974.79999999999927</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>981.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1149.3499999999985</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1275.9000000000015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1645.5499999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18F9-564E-842B-6D5220350F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="544559919"/>
+        <c:axId val="551616879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="544559919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551616879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551616879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544559919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3841,6 +4850,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5377,7 +6466,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5485,6 +6574,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5495,6 +6589,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5526,6 +6625,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6886,6 +7988,1012 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7505,6 +9613,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2001EA4-5D37-F175-1B8B-E5D9EEC36C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -7544,7 +9693,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7585,7 +9734,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7626,7 +9775,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F60EA1-7428-5B41-A869-96675E70B4AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7668,9 +9858,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7708,7 +9898,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7814,7 +10004,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7956,7 +10146,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7964,10 +10154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EC9B32-201A-2948-B0D1-F0DBC04E9E60}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8055,7 +10245,7 @@
       </c>
       <c r="N2">
         <f>COUNTIF($J$2:$J$200,"&gt;0")</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -8075,7 +10265,7 @@
         <v>50</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H34" si="0">E3-F3</f>
+        <f t="shared" ref="H3:H33" si="0">E3-F3</f>
         <v>-205.10000000000036</v>
       </c>
       <c r="I3">
@@ -8091,7 +10281,7 @@
         <v>350</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L34" si="3">K3+E3-$B$2</f>
+        <f t="shared" ref="L3:L33" si="3">K3+E3-$B$2</f>
         <v>147.54999999999927</v>
       </c>
       <c r="M3" t="s">
@@ -8099,7 +10289,7 @@
       </c>
       <c r="N3">
         <f>COUNTIF($J$2:$J$200,"&lt;=0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -8143,7 +10333,7 @@
       </c>
       <c r="N4" s="1">
         <f>N2/(N2+N3)</f>
-        <v>0.76470588235294112</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -8187,7 +10377,7 @@
       </c>
       <c r="N5" s="2">
         <f>100%-N4</f>
-        <v>0.23529411764705888</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -8268,7 +10458,7 @@
       </c>
       <c r="N7" s="3">
         <f>AVERAGEIF($J$2:$J$200,"&gt;0")</f>
-        <v>126.97499999999988</v>
+        <v>119.31</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -8312,7 +10502,7 @@
       </c>
       <c r="N8" s="3">
         <f>AVERAGEIF($J$2:$J$200,"&lt;=0")</f>
-        <v>-333.01875000000041</v>
+        <v>-357.06428571428609</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -8356,7 +10546,7 @@
       </c>
       <c r="N9" s="3">
         <f>N7/ABS(N8)</f>
-        <v>0.38128483756545156</v>
+        <v>0.33414151113244878</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -8435,9 +10625,9 @@
       <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="e">
         <f>MAX($J$2:$J$200)</f>
-        <v>318.59999999999673</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -8479,9 +10669,9 @@
       <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="e">
         <f>MIN($J$2:$J$200)</f>
-        <v>-718.15000000000146</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -8562,7 +10752,7 @@
       </c>
       <c r="N14" s="3">
         <f>(N4*N7)+(N5*N8)</f>
-        <v>18.741176470588016</v>
+        <v>15.10312499999992</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -8606,7 +10796,7 @@
       </c>
       <c r="N15" s="3">
         <f>(N9*N4)-N5</f>
-        <v>5.6276640491227603E-2</v>
+        <v>4.2298055572225601E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -9277,13 +11467,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>18857.25</v>
       </c>
       <c r="E34">
-        <v>19794.7</v>
+        <v>20133.150000000001</v>
       </c>
       <c r="F34">
         <v>19600</v>
@@ -9291,34 +11481,76 @@
       <c r="G34">
         <v>30</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>194.70000000000073</v>
-      </c>
-      <c r="I34">
+      <c r="H34" t="e">
+        <f>#REF!-F34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I34" t="e">
         <f t="shared" si="1"/>
-        <v>194.70000000000073</v>
-      </c>
-      <c r="J34">
+        <v>#REF!</v>
+      </c>
+      <c r="J34" t="e">
         <f t="shared" si="2"/>
-        <v>-164.70000000000073</v>
-      </c>
-      <c r="K34">
+        <v>#REF!</v>
+      </c>
+      <c r="K34" t="e">
         <f t="shared" si="4"/>
-        <v>318.59999999999673</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="3"/>
-        <v>5015.9499999999953</v>
+        <v>#REF!</v>
+      </c>
+      <c r="L34" t="e">
+        <f>K34+#REF!-$B$2</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>20133.150000000001</v>
+      </c>
+      <c r="E35">
+        <v>21778.7</v>
+      </c>
       <c r="I35" t="s">
         <v>54</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="e">
         <f>SUM(J2:J34)</f>
-        <v>318.59999999999673</v>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>21778.7</v>
+      </c>
+      <c r="E36">
+        <v>21352.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>21352.6</v>
+      </c>
+      <c r="E37">
+        <v>21982.799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>21982.799999999999</v>
+      </c>
+      <c r="E38">
+        <v>22326.9</v>
       </c>
     </row>
   </sheetData>
@@ -9328,427 +11560,2736 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC62E7A-1A37-CF4F-82A8-99FEDF35032D}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69D847C-2081-194C-A1EF-322C73B1C880}">
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="A16:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
         <v>15097.35</v>
       </c>
+      <c r="C2">
+        <v>14324.9</v>
+      </c>
       <c r="D2">
+        <f>C2-B2</f>
+        <v>-772.45000000000073</v>
+      </c>
+      <c r="E2">
+        <f>IF($C2&gt;MROUND($B2,50),0,MROUND($B2,50)-$C2)</f>
+        <v>775.10000000000036</v>
+      </c>
+      <c r="F2">
+        <f>IF($C2&gt;MROUND($B2,50)-500,0,MROUND($B2,50)-500-$C2)</f>
+        <v>275.10000000000036</v>
+      </c>
+      <c r="G2">
+        <f>IF($C2&gt;MROUND($B2,50)-1000,0,MROUND($B2,50)-1000-$C2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2-$V$2</f>
+        <v>545.10000000000036</v>
+      </c>
+      <c r="I2">
+        <f>$V$3-F2</f>
+        <v>-179.10000000000036</v>
+      </c>
+      <c r="J2">
+        <f>G2-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K2">
+        <f>H2+(2*I2)+J2</f>
+        <v>149.89999999999964</v>
+      </c>
+      <c r="L2">
+        <f>K2</f>
+        <v>149.89999999999964</v>
+      </c>
+      <c r="M2">
+        <f>IF($C2&lt;MROUND($B2,50)+800,0,$C2-MROUND($B2,50)-800)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>$V$7-M2</f>
+        <v>75</v>
+      </c>
+      <c r="O2">
+        <f>N2</f>
+        <v>75</v>
+      </c>
+      <c r="P2">
+        <f>C2-B2</f>
+        <v>-772.45000000000073</v>
+      </c>
+      <c r="Q2">
+        <f>P2</f>
+        <v>-772.45000000000073</v>
+      </c>
+      <c r="R2">
+        <f>L2+O2+Q2</f>
+        <v>-547.55000000000109</v>
+      </c>
+      <c r="U2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
         <v>14324.9</v>
       </c>
-      <c r="E2">
-        <f>D2-A2</f>
-        <v>-772.45000000000073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>14324.9</v>
+      <c r="C3">
+        <v>14894.9</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D38" si="0">C3-B3</f>
+        <v>570</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E38" si="1">IF($C3&gt;MROUND($B3,50),0,MROUND($B3,50)-$C3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F38" si="2">IF($C3&gt;MROUND($B3,50)-500,0,MROUND($B3,50)-500-$C3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G38" si="3">IF($C3&gt;MROUND($B3,50)-1000,0,MROUND($B3,50)-1000-$C3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>E3-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I3">
+        <f>$V$3-F3</f>
+        <v>96</v>
+      </c>
+      <c r="J3">
+        <f>G3-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K38" si="4">H3+(2*I3)+J3</f>
+        <v>-75</v>
+      </c>
+      <c r="L3">
+        <f>K3+L2</f>
+        <v>74.899999999999636</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M38" si="5">IF($C3&lt;MROUND($B3,50)+800,0,$C3-MROUND($B3,50)-800)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>$V$7-M3</f>
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <f>N3+O2</f>
+        <v>150</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P38" si="6">C3-B3</f>
+        <v>570</v>
+      </c>
+      <c r="Q3">
+        <f>P3+Q2</f>
+        <v>-202.45000000000073</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R38" si="7">L3+O3+Q3</f>
+        <v>22.449999999998909</v>
+      </c>
+      <c r="U3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
         <v>14894.9</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">D3-A3</f>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>14894.9</v>
+      <c r="C4">
+        <v>15337.85</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>442.95000000000073</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>E4-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I4">
+        <f>$V$3-F4</f>
+        <v>96</v>
+      </c>
+      <c r="J4">
+        <f>G4-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L38" si="8">K4+L3</f>
+        <v>-0.1000000000003638</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>$V$7-M4</f>
+        <v>75</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O38" si="9">N4+O3</f>
+        <v>225</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>442.95000000000073</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q38" si="10">P4+Q3</f>
+        <v>240.5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="7"/>
+        <v>465.39999999999964</v>
+      </c>
+      <c r="U4" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
         <v>15337.85</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>442.95000000000073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>15337.85</v>
+      <c r="C5">
+        <v>15790.45</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>452.60000000000036</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>E5-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I5">
+        <f>$V$3-F5</f>
+        <v>96</v>
+      </c>
+      <c r="J5">
+        <f>G5-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>-75.100000000000364</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>$V$7-M5</f>
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>452.60000000000036</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="10"/>
+        <v>693.10000000000036</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>918</v>
+      </c>
+      <c r="U5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5">
+        <f>-V2+(2*V3)-V4</f>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
         <v>15790.45</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>452.60000000000036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>15790.45</v>
+      <c r="C6">
+        <v>15778.45</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>21.549999999999272</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>E6-$V$2</f>
+        <v>-208.45000000000073</v>
+      </c>
+      <c r="I6">
+        <f>$V$3-F6</f>
+        <v>96</v>
+      </c>
+      <c r="J6">
+        <f>G6-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>-53.450000000000728</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>-128.55000000000109</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>$V$7-M6</f>
+        <v>75</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>-12</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="10"/>
+        <v>681.10000000000036</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>927.54999999999927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
         <v>15778.45</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>15778.45</v>
+      <c r="C7">
+        <v>16636.900000000001</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>858.45000000000073</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>E7-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I7">
+        <f>$V$3-F7</f>
+        <v>96</v>
+      </c>
+      <c r="J7">
+        <f>G7-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>-203.55000000000109</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>36.900000000001455</v>
+      </c>
+      <c r="N7">
+        <f>$V$7-M7</f>
+        <v>38.099999999998545</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="9"/>
+        <v>413.09999999999854</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>858.45000000000073</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="10"/>
+        <v>1539.5500000000011</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>1749.0999999999985</v>
+      </c>
+      <c r="U7" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
         <v>16636.900000000001</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>858.45000000000073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>16636.900000000001</v>
+      <c r="C8">
+        <v>17618.150000000001</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>981.25</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>E8-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I8">
+        <f>$V$3-F8</f>
+        <v>96</v>
+      </c>
+      <c r="J8">
+        <f>G8-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="8"/>
+        <v>-278.55000000000109</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>168.15000000000146</v>
+      </c>
+      <c r="N8">
+        <f>$V$7-M8</f>
+        <v>-93.150000000001455</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="9"/>
+        <v>319.94999999999709</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>981.25</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="10"/>
+        <v>2520.8000000000011</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>2562.1999999999971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
         <v>17618.150000000001</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>981.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>17618.150000000001</v>
+      <c r="C9">
+        <v>17857.25</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>239.09999999999854</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>E9-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I9">
+        <f>$V$3-F9</f>
+        <v>96</v>
+      </c>
+      <c r="J9">
+        <f>G9-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>-353.55000000000109</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>$V$7-M9</f>
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="9"/>
+        <v>394.94999999999709</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>239.09999999999854</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="10"/>
+        <v>2759.8999999999996</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>2801.2999999999956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
         <v>17857.25</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>239.09999999999854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>17857.25</v>
+      <c r="C10">
+        <v>17536.25</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-321</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>313.75</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>E10-$V$2</f>
+        <v>83.75</v>
+      </c>
+      <c r="I10">
+        <f>$V$3-F10</f>
+        <v>96</v>
+      </c>
+      <c r="J10">
+        <f>G10-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>238.75</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>-114.80000000000109</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>$V$7-M10</f>
+        <v>75</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="9"/>
+        <v>469.94999999999709</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>-321</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="10"/>
+        <v>2438.8999999999996</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>2794.0499999999956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
         <v>17536.25</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>-321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>17536.25</v>
+      <c r="C11">
+        <v>17203.95</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-332.29999999999927</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>346.04999999999927</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>E11-$V$2</f>
+        <v>116.04999999999927</v>
+      </c>
+      <c r="I11">
+        <f>$V$3-F11</f>
+        <v>96</v>
+      </c>
+      <c r="J11">
+        <f>G11-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>271.04999999999927</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>156.24999999999818</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>$V$7-M11</f>
+        <v>75</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="9"/>
+        <v>544.94999999999709</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>-332.29999999999927</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="10"/>
+        <v>2106.6000000000004</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>2807.7999999999956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
         <v>17203.95</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>-332.29999999999927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>17203.95</v>
+      <c r="C12">
+        <v>17110.150000000001</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-93.799999999999272</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>89.849999999998545</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>E12-$V$2</f>
+        <v>-140.15000000000146</v>
+      </c>
+      <c r="I12">
+        <f>$V$3-F12</f>
+        <v>96</v>
+      </c>
+      <c r="J12">
+        <f>G12-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>14.849999999998545</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>171.09999999999673</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>$V$7-M12</f>
+        <v>75</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="9"/>
+        <v>619.94999999999709</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>-93.799999999999272</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="10"/>
+        <v>2012.8000000000011</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>2803.8499999999949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
         <v>17110.150000000001</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>-93.799999999999272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>17110.150000000001</v>
+      <c r="C13">
+        <v>16247.95</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-862.20000000000073</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>852.04999999999927</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>352.04999999999927</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>E13-$V$2</f>
+        <v>622.04999999999927</v>
+      </c>
+      <c r="I13">
+        <f>$V$3-F13</f>
+        <v>-256.04999999999927</v>
+      </c>
+      <c r="J13">
+        <f>G13-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>72.950000000000728</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>244.04999999999745</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>$V$7-M13</f>
+        <v>75</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="9"/>
+        <v>694.94999999999709</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>-862.20000000000073</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="10"/>
+        <v>1150.6000000000004</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>2089.5999999999949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
         <v>16247.95</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>-862.20000000000073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>16247.95</v>
+      <c r="C14">
+        <v>17222.75</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>974.79999999999927</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>E14-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I14">
+        <f>$V$3-F14</f>
+        <v>96</v>
+      </c>
+      <c r="J14">
+        <f>G14-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>169.04999999999745</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>172.75</v>
+      </c>
+      <c r="N14">
+        <f>$V$7-M14</f>
+        <v>-97.75</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>597.19999999999709</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>974.79999999999927</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="10"/>
+        <v>2125.3999999999996</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
+        <v>2891.6499999999942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
         <v>17222.75</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>974.79999999999927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>17222.75</v>
+      <c r="C15">
+        <v>17245.05</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>22.299999999999272</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>E15-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I15">
+        <f>$V$3-F15</f>
+        <v>96</v>
+      </c>
+      <c r="J15">
+        <f>G15-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>94.049999999997453</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>$V$7-M15</f>
+        <v>75</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="9"/>
+        <v>672.19999999999709</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>22.299999999999272</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="10"/>
+        <v>2147.6999999999989</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>2913.9499999999935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
         <v>17245.05</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>22.299999999999272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>17245.05</v>
+      <c r="C16">
+        <v>16170.15</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-1074.8999999999996</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1079.8500000000004</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>579.85000000000036</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>79.850000000000364</v>
+      </c>
+      <c r="H16">
+        <f>E16-$V$2</f>
+        <v>849.85000000000036</v>
+      </c>
+      <c r="I16">
+        <f>$V$3-F16</f>
+        <v>-483.85000000000036</v>
+      </c>
+      <c r="J16">
+        <f>G16-$V$4</f>
+        <v>42.850000000000364</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>19.049999999997453</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>$V$7-M16</f>
+        <v>75</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="9"/>
+        <v>747.19999999999709</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>-1074.8999999999996</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>1072.7999999999993</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>1839.0499999999938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
         <v>16170.15</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>-1074.8999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16170.15</v>
+      <c r="C17">
+        <v>15780.25</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-389.89999999999964</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>369.75</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>E17-$V$2</f>
+        <v>139.75</v>
+      </c>
+      <c r="I17">
+        <f>$V$3-F17</f>
+        <v>96</v>
+      </c>
+      <c r="J17">
+        <f>G17-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>294.75</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>313.79999999999745</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>$V$7-M17</f>
+        <v>75</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="9"/>
+        <v>822.19999999999709</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>-389.89999999999964</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="10"/>
+        <v>682.89999999999964</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>1818.8999999999942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
         <v>15780.25</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>-389.89999999999964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>15780.25</v>
+      <c r="C18">
+        <v>16929.599999999999</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1149.3499999999985</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>E18-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I18">
+        <f>$V$3-F18</f>
+        <v>96</v>
+      </c>
+      <c r="J18">
+        <f>G18-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>238.79999999999745</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>329.59999999999854</v>
+      </c>
+      <c r="N18">
+        <f>$V$7-M18</f>
+        <v>-254.59999999999854</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="9"/>
+        <v>567.59999999999854</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>1149.3499999999985</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>1832.2499999999982</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>2638.6499999999942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
         <v>16929.599999999999</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1149.3499999999985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16929.599999999999</v>
+      <c r="C19">
+        <v>17522.45</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>592.85000000000218</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>E19-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I19">
+        <f>$V$3-F19</f>
+        <v>96</v>
+      </c>
+      <c r="J19">
+        <f>G19-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>163.79999999999745</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>$V$7-M19</f>
+        <v>75</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="9"/>
+        <v>642.59999999999854</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>592.85000000000218</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>2425.1000000000004</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>3231.4999999999964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
         <v>17522.45</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>592.85000000000218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>17522.45</v>
+      <c r="C20">
+        <v>16818.099999999999</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-704.35000000000218</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>681.90000000000146</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>181.90000000000146</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>E20-$V$2</f>
+        <v>451.90000000000146</v>
+      </c>
+      <c r="I20">
+        <f>$V$3-F20</f>
+        <v>-85.900000000001455</v>
+      </c>
+      <c r="J20">
+        <f>G20-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>243.09999999999854</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>406.899999999996</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>$V$7-M20</f>
+        <v>75</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="9"/>
+        <v>717.59999999999854</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>-704.35000000000218</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="10"/>
+        <v>1720.7499999999982</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>2845.2499999999927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
         <v>16818.099999999999</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>-704.35000000000218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>16818.099999999999</v>
+      <c r="C21">
+        <v>17736.95</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>918.85000000000218</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>E21-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I21">
+        <f>$V$3-F21</f>
+        <v>96</v>
+      </c>
+      <c r="J21">
+        <f>G21-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>331.899999999996</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>136.95000000000073</v>
+      </c>
+      <c r="N21">
+        <f>$V$7-M21</f>
+        <v>-61.950000000000728</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>655.64999999999782</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>918.85000000000218</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="10"/>
+        <v>2639.6000000000004</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>3627.1499999999942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
         <v>17736.95</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>918.85000000000218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>17736.95</v>
+      <c r="C22">
+        <v>18484.099999999999</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>747.14999999999782</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>E22-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I22">
+        <f>$V$3-F22</f>
+        <v>96</v>
+      </c>
+      <c r="J22">
+        <f>G22-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>256.899999999996</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>$V$7-M22</f>
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>730.64999999999782</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>747.14999999999782</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="10"/>
+        <v>3386.7499999999982</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>4374.299999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
         <v>18484.099999999999</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>747.14999999999782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>18484.099999999999</v>
+      <c r="C23">
+        <v>18191</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-293.09999999999854</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>E23-$V$2</f>
+        <v>79</v>
+      </c>
+      <c r="I23">
+        <f>$V$3-F23</f>
+        <v>96</v>
+      </c>
+      <c r="J23">
+        <f>G23-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>490.899999999996</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>$V$7-M23</f>
+        <v>75</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>805.64999999999782</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>-293.09999999999854</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="10"/>
+        <v>3093.6499999999996</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>4390.1999999999935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
         <v>18191</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>-293.09999999999854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>18191</v>
+      <c r="C24">
+        <v>17891.95</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-299.04999999999927</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>308.04999999999927</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>E24-$V$2</f>
+        <v>78.049999999999272</v>
+      </c>
+      <c r="I24">
+        <f>$V$3-F24</f>
+        <v>96</v>
+      </c>
+      <c r="J24">
+        <f>G24-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>233.04999999999927</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>723.94999999999527</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>$V$7-M24</f>
+        <v>75</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>880.64999999999782</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>-299.04999999999927</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="10"/>
+        <v>2794.6000000000004</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>4399.1999999999935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
         <v>17891.95</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>-299.04999999999927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>17891.95</v>
+      <c r="C25">
+        <v>17511.25</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-380.70000000000073</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>388.75</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>E25-$V$2</f>
+        <v>158.75</v>
+      </c>
+      <c r="I25">
+        <f>$V$3-F25</f>
+        <v>96</v>
+      </c>
+      <c r="J25">
+        <f>G25-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>313.75</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>1037.6999999999953</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>$V$7-M25</f>
+        <v>75</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>955.64999999999782</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>-380.70000000000073</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="10"/>
+        <v>2413.8999999999996</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>4407.2499999999927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
         <v>17511.25</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>-380.70000000000073</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>17511.25</v>
+      <c r="C26">
+        <v>17080.7</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-430.54999999999927</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>419.29999999999927</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>E26-$V$2</f>
+        <v>189.29999999999927</v>
+      </c>
+      <c r="I26">
+        <f>$V$3-F26</f>
+        <v>96</v>
+      </c>
+      <c r="J26">
+        <f>G26-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>344.29999999999927</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>1381.9999999999945</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>$V$7-M26</f>
+        <v>75</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>1030.6499999999978</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>-430.54999999999927</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="10"/>
+        <v>1983.3500000000004</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>4395.9999999999927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
         <v>17080.7</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>-430.54999999999927</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>17080.7</v>
+      <c r="C27">
+        <v>17915.05</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>834.34999999999854</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>E27-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I27">
+        <f>$V$3-F27</f>
+        <v>96</v>
+      </c>
+      <c r="J27">
+        <f>G27-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>1306.9999999999945</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>15.049999999999272</v>
+      </c>
+      <c r="N27">
+        <f>$V$7-M27</f>
+        <v>59.950000000000728</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>1090.5999999999985</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>834.34999999999854</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="10"/>
+        <v>2817.6999999999989</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="7"/>
+        <v>5215.299999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
         <v>17915.05</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>834.34999999999854</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>17915.05</v>
+      <c r="C28">
+        <v>18321.150000000001</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>406.10000000000218</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>E28-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I28">
+        <f>$V$3-F28</f>
+        <v>96</v>
+      </c>
+      <c r="J28">
+        <f>G28-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>1231.9999999999945</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>$V$7-M28</f>
+        <v>75</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>1165.5999999999985</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>406.10000000000218</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="10"/>
+        <v>3223.8000000000011</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="7"/>
+        <v>5621.3999999999942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
         <v>18321.150000000001</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>406.10000000000218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>18321.150000000001</v>
+      <c r="C29">
+        <v>18972.099999999999</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>650.94999999999709</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>E29-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I29">
+        <f>$V$3-F29</f>
+        <v>96</v>
+      </c>
+      <c r="J29">
+        <f>G29-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>1156.9999999999945</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>$V$7-M29</f>
+        <v>75</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>1240.5999999999985</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>650.94999999999709</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="10"/>
+        <v>3874.7499999999982</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>6272.3499999999913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
         <v>18972.099999999999</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>650.94999999999709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>18972.099999999999</v>
+      <c r="C30">
+        <v>19659.900000000001</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
+        <v>687.80000000000291</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>E30-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I30">
+        <f>$V$3-F30</f>
+        <v>96</v>
+      </c>
+      <c r="J30">
+        <f>G30-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>1081.9999999999945</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>$V$7-M30</f>
+        <v>75</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>1315.5999999999985</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>687.80000000000291</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="10"/>
+        <v>4562.5500000000011</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>6960.1499999999942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
         <v>19659.900000000001</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>687.80000000000291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>19659.900000000001</v>
+      <c r="C31">
+        <v>19253.8</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-406.10000000000218</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>396.20000000000073</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>E31-$V$2</f>
+        <v>166.20000000000073</v>
+      </c>
+      <c r="I31">
+        <f>$V$3-F31</f>
+        <v>96</v>
+      </c>
+      <c r="J31">
+        <f>G31-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>321.20000000000073</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>1403.1999999999953</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>$V$7-M31</f>
+        <v>75</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>1390.5999999999985</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>-406.10000000000218</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="10"/>
+        <v>4156.4499999999989</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>6950.2499999999927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
         <v>19253.8</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>-406.10000000000218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>19253.8</v>
+      <c r="C32">
+        <v>19523.55</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>269.75</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>E32-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I32">
+        <f>$V$3-F32</f>
+        <v>96</v>
+      </c>
+      <c r="J32">
+        <f>G32-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>1328.1999999999953</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>$V$7-M32</f>
+        <v>75</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>1465.5999999999985</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>269.75</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="10"/>
+        <v>4426.1999999999989</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>7219.9999999999927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33">
         <v>19523.55</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>269.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>19523.55</v>
+      <c r="C33">
+        <v>18857.25</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-666.29999999999927</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>642.75</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>142.75</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>E33-$V$2</f>
+        <v>412.75</v>
+      </c>
+      <c r="I33">
+        <f>$V$3-F33</f>
+        <v>-46.75</v>
+      </c>
+      <c r="J33">
+        <f>G33-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>282.25</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>1610.4499999999953</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>$V$7-M33</f>
+        <v>75</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="9"/>
+        <v>1540.5999999999985</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>-666.29999999999927</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="10"/>
+        <v>3759.8999999999996</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="7"/>
+        <v>6910.9499999999935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
         <v>18857.25</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>-666.29999999999927</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>18857.25</v>
+      <c r="C34">
+        <v>20133.150000000001</v>
       </c>
       <c r="D34">
-        <v>19794.7</v>
+        <f t="shared" si="0"/>
+        <v>1275.9000000000015</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>937.45000000000073</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>E34-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I34">
+        <f>$V$3-F34</f>
+        <v>96</v>
+      </c>
+      <c r="J34">
+        <f>G34-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>1535.4499999999953</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>483.15000000000146</v>
+      </c>
+      <c r="N34">
+        <f>$V$7-M34</f>
+        <v>-408.15000000000146</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="9"/>
+        <v>1132.4499999999971</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>1275.9000000000015</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="10"/>
+        <v>5035.8000000000011</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="7"/>
+        <v>7703.6999999999935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>20133.150000000001</v>
+      </c>
+      <c r="C35">
+        <v>21778.7</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1645.5499999999993</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>E35-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I35">
+        <f>$V$3-F35</f>
+        <v>96</v>
+      </c>
+      <c r="J35">
+        <f>G35-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>1460.4499999999953</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>828.70000000000073</v>
+      </c>
+      <c r="N35">
+        <f>$V$7-M35</f>
+        <v>-753.70000000000073</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>378.74999999999636</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>1645.5499999999993</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="10"/>
+        <v>6681.35</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>8520.549999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>21778.7</v>
+      </c>
+      <c r="C36">
+        <v>21352.6</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-426.10000000000218</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>447.40000000000146</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>E36-$V$2</f>
+        <v>217.40000000000146</v>
+      </c>
+      <c r="I36">
+        <f>$V$3-F36</f>
+        <v>96</v>
+      </c>
+      <c r="J36">
+        <f>G36-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>372.40000000000146</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>1832.8499999999967</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>$V$7-M36</f>
+        <v>75</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>453.74999999999636</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>-426.10000000000218</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="10"/>
+        <v>6255.2499999999982</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>8541.8499999999913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>21352.6</v>
+      </c>
+      <c r="C37">
+        <v>21982.799999999999</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>630.20000000000073</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>E37-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I37">
+        <f>$V$3-F37</f>
+        <v>96</v>
+      </c>
+      <c r="J37">
+        <f>G37-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>1757.8499999999967</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>$V$7-M37</f>
+        <v>75</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="9"/>
+        <v>528.74999999999636</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>630.20000000000073</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="10"/>
+        <v>6885.4499999999989</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="7"/>
+        <v>9172.049999999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>21982.799999999999</v>
+      </c>
+      <c r="C38">
+        <v>22326.9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>344.10000000000218</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>E38-$V$2</f>
+        <v>-230</v>
+      </c>
+      <c r="I38">
+        <f>$V$3-F38</f>
+        <v>96</v>
+      </c>
+      <c r="J38">
+        <f>G38-$V$4</f>
+        <v>-37</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>1682.8499999999967</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>$V$7-M38</f>
+        <v>75</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="9"/>
+        <v>603.74999999999636</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>344.10000000000218</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="10"/>
+        <v>7229.5500000000011</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="7"/>
+        <v>9516.1499999999942</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13369,11 +17910,713 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8BFF05-857F-D144-A5F2-62CC0F37C9AB}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>15097.35</v>
+      </c>
+      <c r="C2">
+        <v>14324.9</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>-772.45000000000073</v>
+      </c>
+      <c r="F2">
+        <v>-1074.8999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>14324.9</v>
+      </c>
+      <c r="C3">
+        <v>14894.9</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D38" si="0">C3-B3</f>
+        <v>570</v>
+      </c>
+      <c r="F3">
+        <v>-862.20000000000073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>14894.9</v>
+      </c>
+      <c r="C4">
+        <v>15337.85</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>442.95000000000073</v>
+      </c>
+      <c r="F4">
+        <v>-772.45000000000073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>15337.85</v>
+      </c>
+      <c r="C5">
+        <v>15790.45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>452.60000000000036</v>
+      </c>
+      <c r="F5">
+        <v>-704.35000000000218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>15790.45</v>
+      </c>
+      <c r="C6">
+        <v>15778.45</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F6">
+        <v>-666.29999999999927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>15778.45</v>
+      </c>
+      <c r="C7">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>858.45000000000073</v>
+      </c>
+      <c r="F7">
+        <v>-430.54999999999927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="C8">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>981.25</v>
+      </c>
+      <c r="F8">
+        <v>-426.10000000000218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>17618.150000000001</v>
+      </c>
+      <c r="C9">
+        <v>17857.25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>239.09999999999854</v>
+      </c>
+      <c r="F9">
+        <v>-406.10000000000218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>17857.25</v>
+      </c>
+      <c r="C10">
+        <v>17536.25</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-321</v>
+      </c>
+      <c r="F10">
+        <v>-389.89999999999964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>17536.25</v>
+      </c>
+      <c r="C11">
+        <v>17203.95</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-332.29999999999927</v>
+      </c>
+      <c r="F11">
+        <v>-380.70000000000073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>17203.95</v>
+      </c>
+      <c r="C12">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-93.799999999999272</v>
+      </c>
+      <c r="F12">
+        <v>-332.29999999999927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>17110.150000000001</v>
+      </c>
+      <c r="C13">
+        <v>16247.95</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-862.20000000000073</v>
+      </c>
+      <c r="F13">
+        <v>-321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>16247.95</v>
+      </c>
+      <c r="C14">
+        <v>17222.75</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>974.79999999999927</v>
+      </c>
+      <c r="F14">
+        <v>-299.04999999999927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>17222.75</v>
+      </c>
+      <c r="C15">
+        <v>17245.05</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>22.299999999999272</v>
+      </c>
+      <c r="F15">
+        <v>-293.09999999999854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>17245.05</v>
+      </c>
+      <c r="C16">
+        <v>16170.15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-1074.8999999999996</v>
+      </c>
+      <c r="F16">
+        <v>-93.799999999999272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>16170.15</v>
+      </c>
+      <c r="C17">
+        <v>15780.25</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-389.89999999999964</v>
+      </c>
+      <c r="F17">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>15780.25</v>
+      </c>
+      <c r="C18">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1149.3499999999985</v>
+      </c>
+      <c r="F18">
+        <v>22.299999999999272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>16929.599999999999</v>
+      </c>
+      <c r="C19">
+        <v>17522.45</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>592.85000000000218</v>
+      </c>
+      <c r="F19">
+        <v>239.09999999999854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>17522.45</v>
+      </c>
+      <c r="C20">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-704.35000000000218</v>
+      </c>
+      <c r="F20">
+        <v>269.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>16818.099999999999</v>
+      </c>
+      <c r="C21">
+        <v>17736.95</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>918.85000000000218</v>
+      </c>
+      <c r="F21">
+        <v>344.10000000000218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>17736.95</v>
+      </c>
+      <c r="C22">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>747.14999999999782</v>
+      </c>
+      <c r="F22">
+        <v>406.10000000000218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>18484.099999999999</v>
+      </c>
+      <c r="C23">
+        <v>18191</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-293.09999999999854</v>
+      </c>
+      <c r="F23">
+        <v>442.95000000000073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>18191</v>
+      </c>
+      <c r="C24">
+        <v>17891.95</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-299.04999999999927</v>
+      </c>
+      <c r="F24">
+        <v>452.60000000000036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>17891.95</v>
+      </c>
+      <c r="C25">
+        <v>17511.25</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-380.70000000000073</v>
+      </c>
+      <c r="F25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>17511.25</v>
+      </c>
+      <c r="C26">
+        <v>17080.7</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-430.54999999999927</v>
+      </c>
+      <c r="F26">
+        <v>592.85000000000218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>17080.7</v>
+      </c>
+      <c r="C27">
+        <v>17915.05</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>834.34999999999854</v>
+      </c>
+      <c r="F27">
+        <v>630.20000000000073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>17915.05</v>
+      </c>
+      <c r="C28">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>406.10000000000218</v>
+      </c>
+      <c r="F28">
+        <v>650.94999999999709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>18321.150000000001</v>
+      </c>
+      <c r="C29">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>650.94999999999709</v>
+      </c>
+      <c r="F29">
+        <v>687.80000000000291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
+        <v>18972.099999999999</v>
+      </c>
+      <c r="C30">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>687.80000000000291</v>
+      </c>
+      <c r="F30">
+        <v>747.14999999999782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <v>19659.900000000001</v>
+      </c>
+      <c r="C31">
+        <v>19253.8</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-406.10000000000218</v>
+      </c>
+      <c r="F31">
+        <v>834.34999999999854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>19253.8</v>
+      </c>
+      <c r="C32">
+        <v>19523.55</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>269.75</v>
+      </c>
+      <c r="F32">
+        <v>858.45000000000073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33">
+        <v>19523.55</v>
+      </c>
+      <c r="C33">
+        <v>18857.25</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-666.29999999999927</v>
+      </c>
+      <c r="F33">
+        <v>918.85000000000218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>18857.25</v>
+      </c>
+      <c r="C34">
+        <v>20133.150000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1275.9000000000015</v>
+      </c>
+      <c r="F34">
+        <v>974.79999999999927</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>20133.150000000001</v>
+      </c>
+      <c r="C35">
+        <v>21778.7</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1645.5499999999993</v>
+      </c>
+      <c r="F35">
+        <v>981.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>21778.7</v>
+      </c>
+      <c r="C36">
+        <v>21352.6</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-426.10000000000218</v>
+      </c>
+      <c r="F36">
+        <v>1149.3499999999985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>21352.6</v>
+      </c>
+      <c r="C37">
+        <v>21982.799999999999</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>630.20000000000073</v>
+      </c>
+      <c r="F37">
+        <v>1275.9000000000015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>21982.799999999999</v>
+      </c>
+      <c r="C38">
+        <v>22326.9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>344.10000000000218</v>
+      </c>
+      <c r="F38">
+        <v>1645.5499999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F8634-9262-464A-A186-58DAA03B4997}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
